--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01502752304077148</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1043255850672722</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1407670676708221</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1225867979872689</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>14.50879126787186</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03655337169766426</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1440080553293228</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1810043007135391</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1911893608380557</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>21.07656598091125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4113546311855316</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4887799918651581</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2319023311138153</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6413693406965534</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.10965240001678</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1888059079647064</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2910935878753662</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1458281427621841</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4345180179977655</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>11.65891513228416</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7906436324119568</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8330231904983521</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3241593837738037</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8891814395341127</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.02262401580811</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.584862351417542</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.232777714729309</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4665590524673462</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.258913162778728</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>37.22343146800995</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.481488972902298</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6679688692092896</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.245789960026741</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6938940646109447</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>21.66275233030319</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06419707834720612</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.218426302075386</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.07972476631402969</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2533714236988973</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>7.813522219657898</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.07475727051496506</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1888732314109802</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.390791296958923</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2734177582289875</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>35.32720506191254</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1023266240954399</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.219016507267952</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.57041597366333</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3198853296033438</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>38.83747458457947</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1289936304092407</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3062675595283508</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.294403672218323</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3591568326083199</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>60.83758473396301</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1117742359638214</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2777276933193207</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.383860468864441</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3343265409204322</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>54.74899411201477</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2639.086181640625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>38.35010147094727</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>138.5380706787109</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>51.37203696215116</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>184.7737073898315</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05866073071956635</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1754409223794937</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.325961709022522</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2421997744003209</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>36.37178242206573</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.018771409988403</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.029943108558655</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.062412261962891</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.420834758157473</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>37.08333075046539</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.379871010780334</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.9411948323249817</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.821742832660675</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.174679109706278</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>38.41254115104675</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.08116090297699</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.65973961353302</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.853498637676239</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.039788874232163</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>27.04893946647644</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.9209474325180054</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.6412833333015442</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.7797413468360901</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.9596600609163671</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.75046825408936</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7008181810379028</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5767053961753845</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3905299007892609</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8371488404327529</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.59310793876648</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>9.30992603302002</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>2.365026950836182</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.249288558959961</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>3.051217139605115</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>70.53481936454773</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.01759390160441399</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1171173304319382</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1616466492414474</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1326420054297054</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.29720830917358</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03611322492361069</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1279167681932449</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3742104768753052</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1900347992437456</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>22.12479412555695</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03764538466930389</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1635823398828506</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3540935516357422</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1940241857844117</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.53590643405914</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02669921889901161</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1359866708517075</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2384525686502457</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.163398956235992</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.80144733190536</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.144630491733551</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2755115926265717</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6970069408416748</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3803031576697083</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>34.97141301631927</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08182992786169052</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2451653480529785</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.0862547978758812</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2860593082940853</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>8.983583003282547</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2844455242156982</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.477294534444809</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1730698645114899</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5333343456179231</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.8711479306221</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1951726377010345</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2984996140003204</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1475954800844193</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4417834737753717</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>12.06033602356911</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03812292590737343</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1572636365890503</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2430155128240585</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1952509306184568</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>24.11410361528397</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.03023612499237061</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1428813189268112</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2499018013477325</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1738853788918741</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>21.83074355125427</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.07115572690963745</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2302490025758743</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.08067895472049713</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2667503081715885</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>8.437178283929825</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2089859545230865</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4112443923950195</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1542279571294785</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4571498162780847</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>14.03745859861374</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21401,13 +21977,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.3434132933616638</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4330148100852966</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2084488123655319</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5860147552422753</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>16.38466417789459</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22496,13 +23090,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.3582833409309387</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5526391863822937</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1983684897422791</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5985677413049744</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>22.15856164693832</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24193,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02347802557051182</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1261323392391205</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1972967684268951</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1532254077185367</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>17.8956925868988</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.02592739649116993</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1483745127916336</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2285834401845932</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1610198636540534</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>20.88572233915329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25327,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1367506831884384</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3149416148662567</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7185711860656738</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3697981654746795</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>41.96732640266418</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.09520917385816574</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2555586099624634</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.6383888125419617</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3085598383752586</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>36.22274994850159</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26459,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02924543619155884</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1455320119857788</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.267098993062973</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1710129708284107</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>22.2108393907547</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04398733377456665</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1819177716970444</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3153436183929443</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.209731575530645</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>27.53919661045074</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04691346051182275</v>
+        <v>0.04691346051182278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1865129431110522</v>
+        <v>0.1865129431110523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2643682770640483</v>
+        <v>0.2643682770640485</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2165951534818421</v>
+        <v>0.2165951534818422</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>31.91825104663494</v>
+        <v>31.91825104663497</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02885241618130124</v>
+        <v>0.0288524161813012</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1334341014862883</v>
+        <v>0.1334341014862882</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1803507468632586</v>
+        <v>0.1803507468632584</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1698599899367159</v>
+        <v>0.1698599899367158</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.41689859926331</v>
+        <v>20.41689859926328</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.01895305492072721</v>
+        <v>0.0189530549207272</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.09227082658041728</v>
+        <v>0.09227082658041726</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.1135212951227853</v>
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01890510719856978</v>
+        <v>0.01939718884886394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1168679506352037</v>
+        <v>0.1197960101877554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1556125386578255</v>
+        <v>0.1616682021066557</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.137495844295636</v>
+        <v>0.1392737909617741</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.24925646147195</v>
+        <v>17.9508482224712</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.01792337070693652</v>
+        <v>0.01844870504145972</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1105820600460787</v>
+        <v>0.1119564287566911</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1459123134321283</v>
+        <v>0.1470179569967989</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.1338781935452392</v>
+        <v>0.1358260101801556</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>16.16027842127829</v>
+        <v>16.29765059531649</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0217911321669817</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1227282732725143</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1767432391643524</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1476181972758836</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.44444966316223</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02165912091732025</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1256087422370911</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1817547380924225</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.147170380570685</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>17.86060035228729</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01469117496162653</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09587417542934418</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.120208814740181</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1212071572211251</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.64975219964981</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01295225042849779</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.09289656579494476</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1197231560945511</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1138079541530283</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>12.30364441871643</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.151490204373055e-08</v>
+        <v>2.151490204321804e-08</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001149290634037882</v>
+        <v>0.0001149290634032826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.496607283100686e-05</v>
+        <v>4.49660728309747e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0001466795897312593</v>
+        <v>0.0001466795897295122</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.004496634602319426</v>
+        <v>0.004496634602316195</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.548598766413142e-08</v>
+        <v>1.54859876634327e-08</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>9.622400242550361e-05</v>
+        <v>9.622400243376651e-05</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.910750176585254e-05</v>
+        <v>3.910750176858316e-05</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0001244427083606405</v>
+        <v>0.0001244427083578331</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.003910714390190721</v>
+        <v>0.003910714390463805</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7799251586075057</v>
+        <v>0.7803068611611964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7510675446688764</v>
+        <v>0.7512715230520056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2919199500228065</v>
+        <v>0.2919954481813</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8831337150214036</v>
+        <v>0.8833497954724371</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.92636636788297</v>
+        <v>33.93730258588248</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.8594860923695925</v>
+        <v>0.8612561323074759</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.7808953612654808</v>
+        <v>0.7817629233959406</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3041204447632288</v>
+        <v>0.3046076294441339</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.9270847277188814</v>
+        <v>0.9280388635760228</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>35.24719331879736</v>
+        <v>35.2859249278901</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2674514949321747</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.380928635597229</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1806354075670242</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5171571278945836</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>15.05910754203796</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1869288980960846</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3010452389717102</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1475583761930466</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4323527472979495</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>12.16488480567932</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1012623086571693</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2823186814785004</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1045922711491585</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3182173921349513</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.33300086855888</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.109317310154438</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2756785154342651</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09670362621545792</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3306316835308407</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>10.21770462393761</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.515470481349775e-08</v>
+        <v>2.515470481186856e-08</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001085290845384916</v>
+        <v>0.0001085290845360099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.827987958425994e-05</v>
+        <v>3.827987958348157e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0001586023480705685</v>
+        <v>0.0001586023480654324</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.003828115025746689</v>
+        <v>0.00382811502566884</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.482851003973285e-08</v>
+        <v>2.482851004198971e-08</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0001064385411046639</v>
+        <v>0.0001064385411138787</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>3.745256903121443e-05</v>
+        <v>3.745256903489967e-05</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0001575706509465924</v>
+        <v>0.0001575706509537538</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.003745373181212203</v>
+        <v>0.003745373181580746</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3187,7 +3331,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1650576266140641</v>
+        <v>0.165057626614064</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3657245281525631</v>
@@ -3196,7 +3340,7 @@
         <v>0.1365044190327726</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.406272847497915</v>
+        <v>0.4062728474979149</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>14.03656891048017</v>
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4977871370044834</v>
+        <v>0.4961515940573445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6365204936198424</v>
+        <v>0.6355707297994377</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.230193064746858</v>
+        <v>0.2298642102740325</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.705540315647861</v>
+        <v>0.7043802907927965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.78763024431703</v>
+        <v>26.74103597680372</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.8998347682852245</v>
+        <v>0.8999307094483407</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.8126481568559896</v>
+        <v>0.8126233505749105</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2984097121096361</v>
+        <v>0.2983900205689163</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.9485962092930924</v>
+        <v>0.9486467780203234</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>36.93014004863068</v>
+        <v>36.92879985294301</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1026597693562508</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2710290551185608</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1064721792936325</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3204056325289097</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.20876318216324</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1163084954023361</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2423282265663147</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.09643658250570297</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3410403134562484</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>9.165143966674805</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.124664418399334</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2624711692333221</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08989758789539337</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.353078487590697</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.652020782232285</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03432462736964226</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1458222419023514</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.05479502305388451</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1852690674927746</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>5.249214917421341</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>7.021215941041383e-07</v>
+        <v>7.021215941080112e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0007023216807058892</v>
+        <v>0.0007023216807098393</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002582451862565843</v>
+        <v>0.0002582451862575858</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008379269622730482</v>
+        <v>0.0008379269622753591</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0258291356673881</v>
+        <v>0.02582913566748826</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>6.554230804584974e-07</v>
+        <v>6.554230804551622e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0006687757049760148</v>
+        <v>0.0006687757049799648</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.000248280014130404</v>
+        <v>0.0002482800141315288</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0008095820405977997</v>
+        <v>0.0008095820405957399</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02483249892036948</v>
+        <v>0.02483249892048195</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.9307541728442571</v>
+        <v>0.9224328285634108</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.9286336952438493</v>
+        <v>0.9248283894822722</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3312287109954221</v>
+        <v>0.3298674116128356</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.964756017262529</v>
+        <v>0.9604336669252129</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>40.28372900819173</v>
+        <v>40.06862747429311</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04965189844369888</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1859682500362396</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06674764305353165</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2228270594961458</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.734443455934525</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04843815788626671</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1703043282032013</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.06120994687080383</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2200867053828257</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>6.157742813229561</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04839068651199341</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.190775528550148</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06542883813381195</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2199788319634264</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.787993013858795</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09384477138519287</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2683385610580444</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09375232458114624</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3063409397798356</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.975908696651459</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5329,10 +5617,10 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06106904735098521</v>
+        <v>0.0610690473509852</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.156049111848684</v>
+        <v>0.1560491118486841</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>1.365485768840762</v>
@@ -5341,7 +5629,7 @@
         <v>0.2471215234474432</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.12491575558444</v>
+        <v>30.12491575558445</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5458,7 +5746,7 @@
         <v>1.55614290264398</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.2871854419846916</v>
+        <v>0.2871854419846915</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>31.27954035619874</v>
@@ -5929,19 +6217,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07333538539684481</v>
+        <v>0.07329802751971846</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1859186800320309</v>
+        <v>0.1858589856471209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.457503169300415</v>
+        <v>1.457293716966848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2708050690013848</v>
+        <v>0.2707360846280349</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>34.22608490856766</v>
+        <v>34.21951316829636</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -5959,19 +6247,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06803120156894521</v>
+        <v>0.06813670750814504</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.181896822445905</v>
+        <v>0.1822789669474415</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.402084571572941</v>
+        <v>1.403109030600282</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2608279156243541</v>
+        <v>0.2610300892773572</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>33.93177008148221</v>
+        <v>33.98478157891402</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05867500230669975</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1619278639554977</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.319299936294556</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2422292350371849</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>33.28613936901093</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06110038608312607</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1441348642110825</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.354312539100647</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2471849228475031</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>27.69750654697418</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1497609615325928</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3181955516338348</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5217246413230896</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3869896142438357</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>68.71525645256042</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05824960023164749</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.186415508389473</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.6479576230049133</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2413495395306307</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>33.00651907920837</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,13 +6789,13 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05118941941207773</v>
+        <v>0.05118941941207775</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1273370174838717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.321598690600178</v>
+        <v>1.321598690600179</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.226250788754598</v>
@@ -6459,19 +6819,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05123666249868918</v>
+        <v>0.05123666249868927</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1288673666514995</v>
+        <v>0.1288673666514994</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.320984477050704</v>
+        <v>1.320984477050705</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2263551689241692</v>
+        <v>0.2263551689241694</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>25.61218087449125</v>
+        <v>25.61218087449124</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6997,19 +7357,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05775681340367533</v>
+        <v>0.05700208640125029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1426073323123181</v>
+        <v>0.1420664932461579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.396626183310386</v>
+        <v>1.389657232677677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2403264725403245</v>
+        <v>0.2387510971728723</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>27.5939829036763</v>
+        <v>27.54113702852483</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -7027,19 +7387,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.0602488347433603</v>
+        <v>0.06044988857564605</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1433945144302864</v>
+        <v>0.1423371959308086</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>1.420263513693134</v>
+        <v>1.428384492631226</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2454563805309617</v>
+        <v>0.2458655904669176</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>27.18587284403875</v>
+        <v>27.02862308978686</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -7059,19 +7419,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05692905620279216</v>
+        <v>0.05692833917967938</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1492537951212967</v>
+        <v>0.1492084773436706</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.377143932734083</v>
+        <v>1.377287294256909</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2385981060335395</v>
+        <v>0.238596603453778</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>29.17832625916635</v>
+        <v>29.17623343413727</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -7089,19 +7449,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05719159780466332</v>
+        <v>0.05716062069912854</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1483664565535739</v>
+        <v>0.1483322388350397</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.38162594647659</v>
+        <v>1.381590555008128</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2391476485451264</v>
+        <v>0.2390828741234481</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>29.0927130997726</v>
+        <v>29.08704957171673</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1003178134560585</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2373921275138855</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.610312461853027</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3167298745872553</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>40.98810851573944</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.08515667170286179</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2114171832799911</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.415354013442993</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2918161607979616</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>39.65379595756531</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0485677681863308</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1434234231710434</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5662615895271301</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2203809614878989</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>26.50611400604248</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05699502676725388</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1296510249376297</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.6072970628738403</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.238736312209211</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>22.8194072842598</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7559,7 +7991,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04000674610406071</v>
+        <v>0.04000674610406073</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1158203960128188</v>
@@ -7568,10 +8000,10 @@
         <v>1.22911721571609</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2000168645491192</v>
+        <v>0.2000168645491193</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>23.842678626271</v>
+        <v>23.84267862627098</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7598,7 +8030,7 @@
         <v>1.218614462923644</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1976729687480411</v>
+        <v>0.197672968748041</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>23.39720696724434</v>
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0588083304464817</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1911791414022446</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.7994844913482666</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2425042895424361</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>52.63201594352722</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06715608388185501</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2117420732975006</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.071150183677673</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2591449090409746</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>49.70252513885498</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08311735093593597</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2481769323348999</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5903306603431702</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2883007994021799</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>44.23376321792603</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03607242554426193</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1095123961567879</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.4245294332504272</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1899274217806948</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>19.1850483417511</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8695,7 +9199,7 @@
         <v>0.3290837317365065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5893408455031429</v>
+        <v>0.5893408455031428</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7463995213689421</v>
@@ -8722,10 +9226,10 @@
         <v>0.5836818109352441</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.312714877982272</v>
+        <v>0.3127148779822719</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.602695028936157</v>
+        <v>0.6026950289361571</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.7639907139064218</v>
@@ -9253,23 +9757,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6139783800767745</v>
+        <v>0.6170308977843502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.370016466737731</v>
+        <v>0.370004655692372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6227233797552022</v>
+        <v>0.6236574649584318</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7835677252648775</v>
+        <v>0.7855131429736553</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.80660610580415</v>
+        <v>17.79690777099726</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -9319,19 +9823,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5792624463248209</v>
+        <v>0.5795268577459554</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3704392503256365</v>
+        <v>0.3707785285260347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6076212468196508</v>
+        <v>0.6077818363068195</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7610929288364339</v>
+        <v>0.7612666141017583</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.02390607629724</v>
+        <v>18.03598296209959</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -9349,19 +9853,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.5899101782335241</v>
+        <v>0.5898471796886336</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.3630879101928352</v>
+        <v>0.3629453006919038</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.608231639148119</v>
+        <v>0.6081738045534889</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.7680561035715582</v>
+        <v>0.7680150907948577</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>17.70650300362469</v>
+        <v>17.70114487090571</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6078977584838867</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3940085470676422</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5959764122962952</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7796779838394097</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.82291585206985</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.666482150554657</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4458754360675812</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.65900057554245</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8163835805273505</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.59878706932068</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2549581527709961</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3294937014579773</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2158469408750534</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5049338102870475</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>14.46121037006378</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3008857071399689</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4062292873859406</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2318483293056488</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.5485304979123484</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.52411031723022</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9819,19 +10395,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.51554079861922</v>
+        <v>0.5155407986192199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.300601984587709</v>
+        <v>0.3006019845877088</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5959316637386596</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.718011698107503</v>
+        <v>0.7180116981075029</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>15.26681300847412</v>
+        <v>15.26681300847411</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9849,7 +10425,7 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5723999367004201</v>
+        <v>0.57239993670042</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.3089059745282263</v>
@@ -9858,7 +10434,7 @@
         <v>0.623098472661228</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7565711709419148</v>
+        <v>0.7565711709419147</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>15.64152761325156</v>
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6580232381820679</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4510447978973389</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6776918172836304</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8111863153320992</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.870740711689</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6281725168228149</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.459376722574234</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.650696873664856</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7925733510677828</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>21.31986171007156</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2550119757652283</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3618099987506866</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1926373094320297</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5049871045534017</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.69518148899078</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.2490645349025726</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3009190559387207</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.18534916639328</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.4990636581665436</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>13.21420222520828</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10949,19 +11597,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3874259376212881</v>
+        <v>0.3874259376212871</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2777114738634545</v>
+        <v>0.277711473863455</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2593953539199084</v>
+        <v>0.2593953539199083</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6224354887225568</v>
+        <v>0.6224354887225559</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.13148955516597</v>
+        <v>14.13148955516599</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11102,7 +11750,7 @@
         <v>0.5209690494891716</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3100119610220168</v>
+        <v>0.3100119610220169</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2943555531777585</v>
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6284239292144775</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3963180184364319</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3396179676055908</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7927319403269163</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.83523559570312</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6248776912689209</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4287548661231995</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3558781147003174</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7904920564236688</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.37090158462524</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2584697306156158</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3128498494625092</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1795715689659119</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.5083991843184014</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>13.23589086532593</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.274994432926178</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4160744845867157</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2013571411371231</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.524399116061591</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.00493693351746</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12079,19 +12799,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1386605782654944</v>
+        <v>0.1386605782654949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3124623015815093</v>
+        <v>0.3124623015815098</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4461094991200819</v>
+        <v>0.4461094991200826</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3723715594208216</v>
+        <v>0.3723715594208222</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>45.2134898228861</v>
+        <v>45.21348982288622</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02739814110100269</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1404089778661728</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2006563097238541</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1655238384674627</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.07513493299484</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05128805339336395</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1691429764032364</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2039474546909332</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2264686587441272</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.75997602939606</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13011,19 +13767,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03287235298010503</v>
+        <v>0.032872352980105</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1193170587321527</v>
+        <v>0.1193170587321526</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1710301538722946</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1813073439773057</v>
+        <v>0.1813073439773056</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.84215654103124</v>
+        <v>18.84215654103123</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -13047,13 +13803,13 @@
         <v>0.118477669977406</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1583014124449199</v>
+        <v>0.15830141244492</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.1800317217503902</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.60310688830728</v>
+        <v>17.60310688830729</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13579,19 +14335,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02478535353214623</v>
+        <v>0.02430025643710861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08881363282711609</v>
+        <v>0.08907931170583336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1158961239217796</v>
+        <v>0.116101998447642</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1574336480303567</v>
+        <v>0.1558853952014383</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.5609405391185</v>
+        <v>13.56347612756473</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02430844306945801</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1175113841891289</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3047723770141602</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.155911651487174</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.86031085252762</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02577761560678482</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1187585666775703</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2902319133281708</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1605540893493057</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.86660063266754</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01415591593831778</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09747026115655899</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1334710717201233</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1189786364786459</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>13.44578862190247</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01728280633687973</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1147612333297729</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1751942485570908</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.131464087631869</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>16.57136082649231</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2467826283452061</v>
+        <v>0.2467826283452072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.388514580633976</v>
+        <v>0.3885145806339769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6149863109339231</v>
+        <v>0.6149863109339252</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4967722097150827</v>
+        <v>0.4967722097150838</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>74.62512569230738</v>
+        <v>74.62512569230748</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14583,19 +15411,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01407787692486633</v>
+        <v>0.01360011526008771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09690466002434857</v>
+        <v>0.09787147916631248</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1494723804110198</v>
+        <v>0.1522244291730688</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1186502293502475</v>
+        <v>0.1166195320694081</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.88708441571576</v>
+        <v>15.2215394040112</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04179665818810463</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1725544482469559</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3131817579269409</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2044423101711205</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>25.92292428016663</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.010647002607584</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08922901749610901</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1295663863420486</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1031843137670838</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>12.86061704158783</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15076,10 +15940,10 @@
         <v>1.524633521049607</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9061769672805853</v>
+        <v>0.9061769672805854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.322648818574931</v>
+        <v>1.32264881857493</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1.234760511617377</v>
@@ -15190,7 +16054,7 @@
         <v>0.01945301441017687</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09829239473499626</v>
+        <v>0.09829239473499631</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2173411015291291</v>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02604903653264046</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1106068193912506</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3074289560317993</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1613971391711776</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>18.96805018186569</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0114212641492486</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08130958676338196</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1076293438673019</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1068703146306242</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.04032546281815</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16005,19 +16905,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.086878532347093</v>
+        <v>1.086878532347104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7143386181492097</v>
+        <v>0.7143386181492122</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2690915174269083</v>
+        <v>0.2690915174269093</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.04253466721596</v>
+        <v>1.042534667215966</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.1773677515132</v>
+        <v>30.17736775151324</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16447,19 +17347,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04011222805589833</v>
+        <v>0.03431248574281102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1631130873061411</v>
+        <v>0.1499330470573809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05887781600270805</v>
+        <v>0.05392017156273129</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.200280373616334</v>
+        <v>0.1852362970446425</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.98697666743605</v>
+        <v>5.430373685115762</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04552879929542542</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1795201897621155</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06451156735420227</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2133747859880014</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.492049992084503</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0205940343439579</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1151023358106613</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.04053305089473724</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1435062170916574</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>4.052479937672615</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16937,19 +17873,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>13.47039894701386</v>
+        <v>13.47039894701384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.187357589496772</v>
+        <v>3.187357589496769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.210081305327064</v>
+        <v>1.210081305327063</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>3.670204210532959</v>
+        <v>3.670204210532956</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>124.4510893863022</v>
+        <v>124.4510893863021</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17379,19 +18315,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1859451575328536</v>
+        <v>0.1426742672054963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3412306553795695</v>
+        <v>0.3055886697495041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.123304426129212</v>
+        <v>0.1123618228782966</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4312135869065973</v>
+        <v>0.3777224737892839</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.66457183207071</v>
+        <v>12.28345490248566</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.09214998781681061</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2401342391967773</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.09445954114198685</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3035621646661695</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>9.066081792116165</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05132895335555077</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1917637586593628</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07115644216537476</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2265589401360069</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.928303092718124</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,19 +18841,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>20.58693804808685</v>
+        <v>20.58693804808689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.582806496431205</v>
+        <v>3.58280649643121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.408202573752558</v>
+        <v>1.40820257375256</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>4.537283113063021</v>
+        <v>4.537283113063024</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>101.8058318287785</v>
+        <v>101.8058318287787</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17986,10 +18958,10 @@
         <v>0.1372342812876428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1901703231418024</v>
+        <v>0.1901703231418023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08814177494580269</v>
+        <v>0.08814177494580273</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3704514560474055</v>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1870554387569427</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2859668135643005</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1426877528429031</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4324990621457378</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.61508187651634</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06348109990358353</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2124339193105698</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07952271401882172</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2519545592038047</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.768917828798294</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18804,16 +19812,16 @@
         <v>0.03318441325406175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1252566644950564</v>
+        <v>0.1252566644950565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1683210465241229</v>
+        <v>0.168321046524123</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1821658948707517</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.32138605344866</v>
+        <v>18.32138605344867</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,19 +19839,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03796050833193026</v>
+        <v>0.03796050833193025</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1360457340208823</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1916771712754865</v>
+        <v>0.1916771712754864</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.1948345665736197</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>20.06547374668844</v>
+        <v>20.06547374668843</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -18993,7 +20001,7 @@
         <v>0.1515755739326487</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>15.56475665151888</v>
+        <v>15.56475665151889</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -19369,19 +20377,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01193295987297362</v>
+        <v>0.01152834384551033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08317032605991503</v>
+        <v>0.08049304027375079</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1265825208336558</v>
+        <v>0.1223191334925994</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1092380880140879</v>
+        <v>0.1073701254796246</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.74447472212602</v>
+        <v>13.17363842512736</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03183382004499435</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1451146006584167</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2606112062931061</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1784203464994796</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.14545011520386</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03279947489500046</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1493251770734787</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2670179307460785</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1811062530532849</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.75210618972778</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01324021071195602</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1013761609792709</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1543918699026108</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1150661145253285</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>14.4150048494339</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.00982936006039381</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.0869218185544014</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1269160807132721</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.09914312916381957</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>12.27490678429604</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19937,10 +21017,10 @@
         <v>0.3031012090569072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1053925303944741</v>
+        <v>0.105392530394474</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3998718376710122</v>
+        <v>0.3998718376710121</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>11.41564632551585</v>
@@ -19964,7 +21044,7 @@
         <v>0.3044080361402861</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4577233799393352</v>
+        <v>0.4577233799393349</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1619838810195003</v>
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04837033152580261</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1806066334247589</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.06472466886043549</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2199325613132412</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6.528839468955994</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03832607343792915</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1580208390951157</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.05743037909269333</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1957704610964819</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>5.714422091841698</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03988679125905037</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1598358005285263</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05459548160433769</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1997167776103209</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>5.637476965785027</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03358138352632523</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1423494666814804</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.04841142892837524</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1832522401672766</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>5.000969022512436</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21074,7 +22226,7 @@
         <v>0.5097608304627678</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>15.9381803972159</v>
+        <v>15.93818039721589</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21092,16 +22244,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1486769443332641</v>
+        <v>0.1486769443332642</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2709992587839501</v>
+        <v>0.2709992587839502</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1089293902373044</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3855864939715396</v>
+        <v>0.3855864939715397</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>11.06225236777087</v>
@@ -21660,19 +22812,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.05284310582563854</v>
+        <v>0.05325271602953684</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1358982294081887</v>
+        <v>0.1370662521804933</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.07000342608673701</v>
+        <v>0.07053630528529894</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.229876283738968</v>
+        <v>0.2307655000851229</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>6.059020660904334</v>
+        <v>6.102579719033967</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2222419530153275</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.305704653263092</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1564661115407944</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4714254479929222</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>12.27218732237816</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2167079001665115</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2879326045513153</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1504430174827576</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4655189579023732</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>11.64781972765923</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06376446783542633</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2135367393493652</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08010286837816238</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2525162724170986</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.807968556880951</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06556589156389236</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2181267142295837</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.08179182559251785</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2560583753051096</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.972198724746704</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22175,16 +23399,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1934730861495594</v>
+        <v>0.1934730861495593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3508298263297102</v>
+        <v>0.3508298263297101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1257689352277473</v>
+        <v>0.1257689352277472</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4398557560718734</v>
+        <v>0.4398557560718733</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>13.53529625332182</v>
@@ -22205,19 +23429,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1522180623770019</v>
+        <v>0.1522180623770018</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2864085964000331</v>
+        <v>0.286408596400033</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1002288701696344</v>
+        <v>0.1002288701696343</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3901513326608047</v>
+        <v>0.3901513326608046</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>10.95373872239176</v>
+        <v>10.95373872239175</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -22773,19 +23997,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.04334056230404672</v>
+        <v>0.04750289655452618</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1474109581627379</v>
+        <v>0.1457829609537991</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.0587319717531861</v>
+        <v>0.05756569007512276</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2081839626485353</v>
+        <v>0.2179515922275545</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>5.919893669209045</v>
+        <v>5.937173861702152</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -23026,25 +24250,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1101136431097984</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2392553091049194</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1003789156675339</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3318337582431878</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>9.008132666349411</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.09217524528503418</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2124862223863602</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.08952867239713669</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3036037636213263</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>8.070395141839981</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23052,25 +24312,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04947250708937645</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1893889456987381</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07015752047300339</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2224241603094782</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.844758242368698</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05750037729740143</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2043884992599487</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07593163847923279</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2397923628838113</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.372330874204636</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23290,19 +24586,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0001396594965973728</v>
+        <v>0.0001396594965973927</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009484259124139497</v>
+        <v>0.009484259124140394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01317203992458496</v>
+        <v>0.01317203992458562</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.01181776191152</v>
+        <v>0.01181776191152084</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1.326853884852474</v>
+        <v>1.32685388485254</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23320,19 +24616,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>9.601332243229078e-05</v>
+        <v>9.601332243228422e-05</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.007809722604800801</v>
+        <v>0.00780972260480095</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.01068584628189106</v>
+        <v>0.01068584628189183</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.009798638805073426</v>
+        <v>0.009798638805073092</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>1.072846166768869</v>
+        <v>1.072846166768947</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23920,19 +25216,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07179354717045457</v>
+        <v>0.07178776497778581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2294753339016242</v>
+        <v>0.2299949841461413</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3011921844592256</v>
+        <v>0.3023454230720411</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2679431789959479</v>
+        <v>0.2679323888181229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.80966207554896</v>
+        <v>36.94434214084693</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -23950,19 +25246,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.0679224961821826</v>
+        <v>0.06726067592529583</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2229321220471367</v>
+        <v>0.2208859765627692</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2883242366830127</v>
+        <v>0.2849643613343688</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2606194470529446</v>
+        <v>0.2593466327625941</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>35.11959971387677</v>
+        <v>34.70533835623753</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -24141,25 +25437,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0180140845477581</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1141951978206635</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1667651832103729</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1342165583963398</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.24061316251755</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03062155097723007</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1522375345230103</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2153599858283997</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1749901453717611</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>21.86572700738907</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24167,25 +25499,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02384402416646481</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1409772038459778</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.189256876707077</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1544151034273034</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.88814568519592</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01261968910694122</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.09785348176956177</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1298185586929321</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1123373896213599</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>12.96799182891846</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24424,19 +25792,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.004514684671383972</v>
+        <v>0.004514684671383713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0448830458744384</v>
+        <v>0.04488304587443668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08095307078881656</v>
+        <v>0.08095307078881556</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06719140325505914</v>
+        <v>0.06719140325505721</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.624689627706815</v>
+        <v>7.624689627706626</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24454,19 +25822,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.004233676707906776</v>
+        <v>0.004233676707906693</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.04370332809499343</v>
+        <v>0.04370332809499319</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.07789120348924636</v>
+        <v>0.07789120348924737</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.06506670967481586</v>
+        <v>0.06506670967481522</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>7.369230013605998</v>
+        <v>7.369230013606014</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -25018,23 +26386,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 200, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.06314723507281843</v>
+        <v>0.05810457281080196</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2013782237132013</v>
+        <v>0.1962462277298974</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.3671244578538922</v>
+        <v>0.3726677001002635</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2512911360808782</v>
+        <v>0.2410489012851997</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>33.40782012725396</v>
+        <v>32.22491920875085</v>
       </c>
     </row>
     <row r="18" ht="27.95" customHeight="1">
@@ -25054,19 +26422,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06780658782231157</v>
+        <v>0.0673205691090504</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2114211360715016</v>
+        <v>0.2111704635098259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3823371647725174</v>
+        <v>0.3806878567737817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2603969812081384</v>
+        <v>0.2594620764370978</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>35.14016253293456</v>
+        <v>35.09809428201572</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -25084,19 +26452,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05908927526911058</v>
+        <v>0.05891345947927564</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1932142970352329</v>
+        <v>0.1922918856237649</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.367170601597429</v>
+        <v>0.370173518602871</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2430828567980691</v>
+        <v>0.2427209498153706</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>31.63620646077019</v>
+        <v>31.4197261038936</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -25275,25 +26643,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04595149680972099</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.167851597070694</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4062642753124237</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2143630024274735</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>27.08903849124908</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04792823642492294</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1707799583673477</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.421882838010788</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2189251845378301</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>27.37692892551422</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25301,25 +26705,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03587181866168976</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.150335282087326</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2615640759468079</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1893985709072002</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>21.44909352064133</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03930814564228058</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1752880364656448</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2753732204437256</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1982628196164893</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>24.83091354370117</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25556,19 +26996,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.002582452554968785</v>
+        <v>0.002582452554968695</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03592060236116836</v>
+        <v>0.03592060236116754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04926472141522924</v>
+        <v>0.04926472141522862</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.05081783697648676</v>
+        <v>0.05081783697648588</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>4.999594455065138</v>
+        <v>4.999594455065064</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25586,19 +27026,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.002460198617292506</v>
+        <v>0.00246019861729254</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.03601510489323061</v>
+        <v>0.03601510489323051</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.04851128792034148</v>
+        <v>0.04851128792034116</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.04960038928569519</v>
+        <v>0.04960038928569553</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>4.937807798398286</v>
+        <v>4.937807798398258</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26154,19 +27594,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.03572347318165257</v>
+        <v>0.03500913985503729</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1580564254756887</v>
+        <v>0.1563475193109001</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.2543910002551817</v>
+        <v>0.2526334432067287</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.189006542695359</v>
+        <v>0.1871072950342591</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>24.30964942241383</v>
+        <v>24.02888121948481</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -26186,19 +27626,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.062443804853311</v>
+        <v>0.06240747477441169</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2018604115173273</v>
+        <v>0.201308401689954</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2851909002249161</v>
+        <v>0.2844864251631732</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2498875844321022</v>
+        <v>0.249814881010743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.47857207951993</v>
+        <v>32.41652994500173</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -26216,19 +27656,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05129661564611349</v>
+        <v>0.05254619711816116</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1813825480669757</v>
+        <v>0.1842733201320998</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2602703127486852</v>
+        <v>0.2644527807279113</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2264875617911798</v>
+        <v>0.2292295729572456</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>28.25767392787322</v>
+        <v>28.79021785737842</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -26407,25 +27847,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03228428959846497</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1485264301300049</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2654401957988739</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1796782947338519</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>22.64888733625412</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.03166061267256737</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1461473256349564</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2611347138881683</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1779342931325139</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.31400907039642</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26433,25 +27909,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02558156475424767</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1377114355564117</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2172682583332062</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.159942379481636</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.46834623813629</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.01867414638400078</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.117529459297657</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1835728883743286</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1366533804338582</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>16.71885401010513</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01928320153630568</v>
+        <v>0.01928320153630556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1001234402937323</v>
+        <v>0.1001234402937396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1262673951564546</v>
+        <v>0.1262673951564363</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1388639677393156</v>
+        <v>0.1388639677393151</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>13.77130760945837</v>
+        <v>13.77130760945853</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.01925166548821937</v>
+        <v>0.01925166548824931</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1004036928622812</v>
+        <v>0.1004036928624093</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1268994631214995</v>
+        <v>0.1268994631216827</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1387503711282221</v>
+        <v>0.13875037112833</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.81821802026464</v>
+        <v>13.8182180202851</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.23936576403386</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.23936576403386</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02506994377512808</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1204394333749333</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1554113476381891</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1583349101592194</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.29366000081036</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02413834745883446</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1168507912056944</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1501579673264291</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1553652067189899</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.6144468604101</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1272,23 +1344,23 @@
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 30}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05601638293629133</v>
+        <v>0.02844571759943918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.19966114491483</v>
+        <v>0.1429777862725558</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2666789800652804</v>
+        <v>0.1893349271856318</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2366778040634384</v>
+        <v>0.1686585829403271</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>32.53109077218986</v>
+        <v>21.4862259109232</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03485647438575197</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1494625637586017</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1900878887310976</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1866988869429916</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.68009911413364</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03551863922390231</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.14971308303678</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1897318938956792</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.18846389368763</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.69794069798611</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.84296891915625</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1336579474116222</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3015403207439115</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.115546993731271</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3655925975886577</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.17975309491342</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4318035258278941</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5295030046170794</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.197126125936152</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6571175890416373</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.76315611636617</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9143608605430491</v>
+        <v>0.9143174721320545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7789401907302445</v>
+        <v>0.7787985769118732</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2992153092284412</v>
+        <v>0.2991629141616671</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9562221815786586</v>
+        <v>0.9561994938986605</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>36.96090846904995</v>
+        <v>36.9560721664222</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2513,19 +2693,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.571507231362766</v>
+        <v>1.572876686901274</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.017290142038574</v>
+        <v>1.017927629275721</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3875363076256996</v>
+        <v>0.3877942163551493</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.253597715123463</v>
+        <v>1.254143806308222</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>52.37630480017975</v>
+        <v>52.41284345886994</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3423929111659405</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4839555227707612</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1938734210168741</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5851434962177573</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.96800514515278</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.3088447832401675</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.4654480590533094</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1738569664602071</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.5557380527192353</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.09060244731515</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>8.937532340375366</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1408443292089583</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3133846287408427</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1169136822588358</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3752923250067317</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.5858057811182</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.543743623869112</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.6499955999854622</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2520025263077346</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.7373897367533074</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.04244575039206</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>3.636082291854108</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.802031276144567</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6587131787063392</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.90685140791151</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>104.7303008137749</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6436750472823586</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6901213223468707</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2597569254713324</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.8022936166282009</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>30.67440185745149</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4477,19 +4801,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05967036221688909</v>
+        <v>0.05967036221688934</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1987745421390365</v>
+        <v>0.1987745421390368</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.06957290980988899</v>
+        <v>0.06957290980988913</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2442751772425702</v>
+        <v>0.2442751772425707</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>7.204799643655544</v>
+        <v>7.204799643655559</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.006314959143742</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02544986690562601</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1310614917356446</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.04662453162893012</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1595301441910776</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>4.765421001351303</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1257272827346897</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.2932312417948107</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1057463284917834</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3545804319681075</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>11.36888077758185</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4891,19 +5287,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.035058753918834</v>
+        <v>1.048169289479404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9793676429509925</v>
+        <v>0.9868627760377475</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3493669350260592</v>
+        <v>0.3521515217728868</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.01737837303475</v>
+        <v>1.02380139161822</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>42.99847001609589</v>
+        <v>43.38763516924756</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.425773769313272</v>
+        <v>1.424591038368544</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.162300481407872</v>
+        <v>1.161469519400692</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4159346643954825</v>
+        <v>0.4156909502980263</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.194057690948503</v>
+        <v>1.193562331161864</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>53.24843661540562</v>
+        <v>53.22855039031322</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.262405961308577</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.051402340560426</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3817444481449406</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.123568405264485</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>49.33337541641126</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>1.834166403530452</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>1.14669439114793</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4061029749656641</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>1.354313997391466</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>58.07544514961383</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5649,7 +6081,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06391337659720805</v>
+        <v>0.06391337659720804</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1721974257851195</v>
@@ -5679,19 +6111,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06386009051805172</v>
+        <v>0.06386009051805167</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.171789127503284</v>
+        <v>0.1717891275032839</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>1.375439316246664</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2527055411304859</v>
+        <v>0.2527055411304858</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>32.76354676796682</v>
+        <v>32.7635467679668</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.07104648092786248</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2083070480006544</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.318157745146223</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.266545457526221</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.324410485385</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.07104648092786248</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2083070480006544</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.318157745146223</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.266545457526221</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.324410485385</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4940958805296309</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.587322878439373</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.47060352983894</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.7029195405803077</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>128.0849738559002</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3506672841065752</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4853348753837012</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.193904683134807</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5921716677675276</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>100.0316918607779</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07104647936608449</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.208307045930266</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.318157728768604</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2665454545965556</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.32441026911053</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07104647936608449</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.208307045930266</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.318157728768604</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2665454545965556</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>38.32441026911053</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6851,19 +7391,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05989322317441102</v>
+        <v>0.05989322317441108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1635534555848067</v>
+        <v>0.1635534555848069</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1.393025564153141</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2447309199394531</v>
+        <v>0.2447309199394533</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>31.62286258371075</v>
+        <v>31.62286258371078</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04841355266267802</v>
+        <v>0.0484135526626783</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1291515340736624</v>
+        <v>0.129151534073663</v>
       </c>
       <c r="N8" s="8" t="n">
         <v>1.283693261301582</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2200307993501774</v>
+        <v>0.220030799350178</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>25.36559650380268</v>
+        <v>25.36559650380275</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05863607043408339</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1395060220612029</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.424711814541688</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2421488600718232</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.58856900232968</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05863607043408339</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1395060220612029</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.424711814541688</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2421488600718232</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.58856900232968</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04535182104352208</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1227867387802354</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.232294739965326</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2129596699929873</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>24.88865037272765</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05311266471127245</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1408622325942571</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.306962496974057</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2304618508805144</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.74558768725772</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7325,19 +7937,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05667993508549499</v>
+        <v>0.05668114649474912</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1452615469373703</v>
+        <v>0.1452951411190099</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>1.382340365615371</v>
+        <v>1.382344677240241</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2380754819075139</v>
+        <v>0.2380780260644588</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>28.15326058313867</v>
+        <v>28.15857172090881</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05221256431542556</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1654377653458955</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.233223104984405</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2285006877788895</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.42236033105063</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04948103017988556</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1613446083530265</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.196622838733848</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2224433190273099</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>31.92145292128419</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8053,19 +8701,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0291359089881673</v>
+        <v>0.02913590898816819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1251536351828335</v>
+        <v>0.125153635182837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8079935754480709</v>
+        <v>0.8079935754480956</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1706924397510543</v>
+        <v>0.1706924397510569</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>25.61073247514398</v>
+        <v>25.61073247514451</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8083,19 +8731,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.03657471341692221</v>
+        <v>0.03654206845740166</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1310356198550106</v>
+        <v>0.1310157100379258</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.193695915962124</v>
+        <v>1.193400028527893</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1912451657347767</v>
+        <v>0.1911597982249449</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>26.38578254645522</v>
+        <v>26.37986856620547</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.08033955189997374</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1725177955108849</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.569699396556588</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2834423255266823</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.32964991164852</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.07724027268408977</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1733781194039651</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.53765258576544</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2779213426206951</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.6576546956119</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.8086272238144006</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.7072299162563563</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.304271597381245</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.8992370231559644</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>118.7229360898867</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03532664594051049</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1048968313675564</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.140652235447861</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1879538399195677</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.0082456474347</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8527,19 +9247,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.04776889409016306</v>
+        <v>0.04780641443328</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1233779550319895</v>
+        <v>0.1234803605734705</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>1.335286923291705</v>
+        <v>1.335681496623569</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2185609619537832</v>
+        <v>0.2186467800661148</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>23.9578341361755</v>
+        <v>23.97780489840932</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04767229408049341</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1413554058763955</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.273888781419403</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.21833985911989</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.75667499498661</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05193733463458277</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.144132618204037</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.303468382476146</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2278976406955166</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.78202864546131</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9285,16 +10041,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.5677062058447512</v>
+        <v>0.5677062058447513</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3292547508299999</v>
+        <v>0.3292547508300001</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.5989127046389007</v>
+        <v>0.5989127046389008</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7534628098617417</v>
+        <v>0.7534628098617419</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>16.45574075680141</v>
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5886589029332243</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3683687787069905</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6141325627803086</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7672410983082334</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.85899095725848</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.5886589029332243</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3683687787069905</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6141325627803086</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7672410983082334</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>17.85899095725848</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.770264953402267</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.786370639442685</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9052216982368519</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.402137580032057</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>78.98542683165894</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.30241379273137</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.43635939263768</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.001783721084132</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.510460872575267</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>173.8949150152836</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9699,19 +10527,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6016612363509898</v>
+        <v>0.6011786832663197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3619736762852157</v>
+        <v>0.3617684595624761</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6163324761223453</v>
+        <v>0.6159661389911854</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.7756682514780334</v>
+        <v>0.7753571327242175</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>17.60870422386827</v>
+        <v>17.6030467948363</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5902369165733402</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3987376779791368</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6155327728130009</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7682687788614999</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.08593426789971</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5902369165733402</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3987376779791368</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6155327728130009</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7682687788614999</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.08593426789971</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10463,7 +11327,7 @@
         <v>0.3624408764294572</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6349691264896328</v>
+        <v>0.634969126489633</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.7655765586548411</v>
@@ -10487,16 +11351,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.6052086379682255</v>
+        <v>0.6052086379682254</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.3512828747260313</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6422558511581871</v>
+        <v>0.6422558511581868</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.7779515653099656</v>
+        <v>0.7779515653099655</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>17.19722593423507</v>
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.575800990090811</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4380556937993376</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6300519555865471</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7588155178242014</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.69951706871148</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.603777474946252</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4116583405529448</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.592939721306898</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7770311930329773</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.69036863751031</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.584463596161395</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.490098854855686</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.566020965651176</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.600071993827247</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.500735436565833</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9995078266471222</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.56906052747444</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>191.6920275992747</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5454570778054874</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3636526000295392</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6098324653552993</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7385506602836988</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.83098115787155</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5772625751375634</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3604456954666368</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6268188464909228</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7597779775286747</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>17.56198123139326</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11659,16 +12631,16 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5651775454762855</v>
+        <v>0.5651775454762853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4159950858573706</v>
+        <v>0.4159950858573704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3415514670478791</v>
+        <v>0.341551467047879</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7517829111361108</v>
+        <v>0.7517829111361107</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>19.1647258127837</v>
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4565236439698945</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3214451307546496</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2784186702703805</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.6756653342964211</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.14863252482053</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'random', 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'auto', 'max_depth': 10, 'criterion': 'friedman_mse', 'ccp_alpha': 0.1}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.4270169515680203</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3622185772336949</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2834112232173736</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.6534653407549786</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>17.02337332743731</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3828973449548602</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2767116045468256</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2581886651809876</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6187869948171666</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>14.18691634597564</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>10.57364582494973</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.862974126151027</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.28433899826324</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>3.251714290178295</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>150.3115720313478</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12112,7 +13156,7 @@
         <v>0.2969043035593173</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.6946105754935058</v>
+        <v>0.6946105754935057</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>15.98525709466136</v>
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4997329523910997</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3381838440976835</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3050248354469393</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7069179247912021</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>16.26494608117899</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.4928849506895238</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3376698726726424</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3031278112053828</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7020576548186935</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>16.27450736960808</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12843,19 +13923,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2614442432257002</v>
+        <v>0.2614442432257155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4502808869629</v>
+        <v>0.4502808869629101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6669252999199213</v>
+        <v>0.6669252999199307</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5113161871344386</v>
+        <v>0.5113161871344536</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>73.18484883132254</v>
+        <v>73.18484883132771</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.23936576403386</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03888848602406704</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1453186898624627</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1829783001449187</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1972016379852537</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.15238409933173</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02700234042053324</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1303637199314213</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1705149191926797</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1643238887701153</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.67723432625509</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13829,19 +14963,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02901473928999071</v>
+        <v>0.02901473928999066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1155726405311146</v>
+        <v>0.1155726405311145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.177561998026407</v>
+        <v>0.1775619980264072</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1703371342074027</v>
+        <v>0.1703371342074025</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>18.63715808442021</v>
+        <v>18.63715808442019</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.92300018704432</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.92300018704432</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03761583540505219</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.144287205281267</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2937016910191205</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1939480224314035</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>23.56078596066331</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0375569925801675</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1441331411762939</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2934467865006318</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1937962656507279</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.54026873223562</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14303,19 +15509,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.02417569083857327</v>
+        <v>0.02360599373682272</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0992702056705561</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1483159742684327</v>
+        <v>0.1496462951198317</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1554853396258736</v>
+        <v>0.1536424216706529</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>15.76431352174732</v>
+        <v>15.86059328896298</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03949482705945737</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1384310754752542</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2136236453377862</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1987330547731237</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.34454461069003</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04102615452960526</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1522040238021732</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2522822565427116</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2025491410241111</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>24.95887497445856</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02146244507228248</v>
+        <v>0.02146244507228246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1082893941563541</v>
+        <v>0.108289394156354</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1755315266166939</v>
+        <v>0.1755315266166936</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1465006657741953</v>
+        <v>0.1465006657741952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.45325474470368</v>
+        <v>16.45325474470367</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02661026724615795</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1190039161975384</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1773771494273238</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1631265375288704</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.90288893008336</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15363,23 +16641,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01858966640684914</v>
+        <v>0.01787737661219714</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1023198952885977</v>
+        <v>0.09999587734363329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1540896752590959</v>
+        <v>0.1483358032458219</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1363439269159031</v>
+        <v>0.1337063073014775</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>15.37302014141596</v>
+        <v>14.96068689822807</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02974875764859103</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1384510783371392</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2142419036166239</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1724782816721892</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>21.11394576677235</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15981,19 +17277,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3337141739428838</v>
+        <v>0.3337141739428866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.467408642462143</v>
+        <v>0.467408642462145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8416218662101054</v>
+        <v>0.8416218662101096</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5776799926801029</v>
+        <v>0.5776799926801054</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>66.19182756978674</v>
+        <v>66.19182756978694</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.92300018704432</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02582116758962548</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.113521963112704</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2352703397573211</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1606896623607924</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.78242001567169</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16335,19 +17667,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.00381012252684599</v>
+        <v>0.003816071225526958</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.05093748825218164</v>
+        <v>0.05103068467469217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07732781298405375</v>
+        <v>0.07750522644520973</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.06172618995893064</v>
+        <v>0.0617743573461267</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.875887196058782</v>
+        <v>7.898878853385483</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.01308901974479583</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.09334056691470478</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1639823898839595</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.114407253899374</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>15.41672386201972</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16949,19 +18299,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04442959790611537</v>
+        <v>0.04452248438399439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1695755011346639</v>
+        <v>0.1697300483487313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05941342366345171</v>
+        <v>0.05946784217909878</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2107832960794459</v>
+        <v>0.2110035174682981</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.130724155276719</v>
+        <v>6.136606305012697</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1327816872326668</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3069150989526456</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1059103592784941</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3643922162075733</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.41262067428245</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17303,19 +18689,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1198746381683528</v>
+        <v>0.1197613679952056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3041310813803796</v>
+        <v>0.3037926071985272</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1077415315947199</v>
+        <v>0.1076143221695425</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3462291700136671</v>
+        <v>0.346065554476613</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.55742222556773</v>
+        <v>11.5447700838123</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1476941191477341</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3334635053608492</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1197329572542888</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3843099259032144</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>12.93941762475463</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,19 +19321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.062556519652991</v>
+        <v>0.06255651965299157</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.170048082113099</v>
+        <v>0.1700480821130992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06707231884320118</v>
+        <v>0.06707231884320125</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2501130137617613</v>
+        <v>0.2501130137617624</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.43303405921008</v>
+        <v>6.433034059210085</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1601392598655975</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3358914166718475</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1217383338621101</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4001740369709127</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.83418540273841</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5137473433465823</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6012200298724453</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2156268426484736</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.716761706110603</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>25.35125120456095</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,19 +20343,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1316672719022988</v>
+        <v>0.1316672719022901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2288179791260727</v>
+        <v>0.2288179791260687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1128949194676937</v>
+        <v>0.1128949194676907</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.362859851598794</v>
+        <v>0.362859851598782</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>9.513088324821908</v>
+        <v>9.513088324821755</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2218470503664739</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3740998900861244</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1615410517556826</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.471006422850553</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.11274060089849</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1268550832599993</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2607206399596998</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.114030160874559</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3561672124999708</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.76861510388997</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19901,19 +21413,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.0304355747002442</v>
+        <v>0.03043557470024422</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1335853661498177</v>
+        <v>0.1335853661498178</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2079854663560254</v>
+        <v>0.2079854663560257</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.1744579453628989</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>20.304184612968</v>
+        <v>20.30418461296802</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.32505932938447</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03276160607942207</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1386943970567567</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.209562535576002</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1810016742448038</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>21.07593419249233</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03279917212787829</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1387850170384421</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2097839925653552</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1811054171687813</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.09133306001202</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20315,19 +21899,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.01728020392992011</v>
+        <v>0.0172551711935927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09744852213628026</v>
+        <v>0.09724317720236095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.132555902784546</v>
+        <v>0.1321637527337065</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.1314541894726833</v>
+        <v>0.1313589402880242</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.42064575891457</v>
+        <v>14.37927831127017</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.01754251029725255</v>
+        <v>0.01755282820061482</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.09907208176461117</v>
+        <v>0.09913616984372252</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1350655564469816</v>
+        <v>0.1351299863131381</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1324481419169501</v>
+        <v>0.1324870869202535</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>14.72702496242285</v>
+        <v>14.73337084663285</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02774189867184202</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1179710030776995</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1592210354720269</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1665589945690175</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.27949283434923</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02774189867184202</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1179710030776995</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1592210354720269</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1665589945690175</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.27949283434923</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03143061745773391</v>
+        <v>0.03143061745773403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1352774070383196</v>
+        <v>0.1352774070383198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04649068353347141</v>
+        <v>0.04649068353347148</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1772868225721639</v>
+        <v>0.1772868225721642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.800078328879354</v>
+        <v>4.800078328879363</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04360065869552655</v>
+        <v>0.04360065869546446</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1633221481471901</v>
+        <v>0.1633221481470438</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.05708132944695436</v>
+        <v>0.05708132944690149</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.208807707461977</v>
+        <v>0.2088077074618283</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>5.880424057451357</v>
+        <v>5.880424057445919</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.006314959143742</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05505449741040632</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1934678660365473</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.06811094267651545</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2346369480930195</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.006314959143742</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1349141427263523</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3080651952724868</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1062190252014451</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3673066058844467</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.45670496717436</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1352097579729732</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3085247078463091</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1063826626360497</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3677087950715528</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>11.47516630745956</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1366968007371658</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2318914564387668</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.07910432471411942</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.369725304431771</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>8.794076321556769</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02334571127836997</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1288045414736246</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.04543740649835742</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1527930341290792</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>4.614896694156101</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22306,19 +24034,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1508242614152918</v>
+        <v>0.1508242614152916</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.253504065914706</v>
+        <v>0.2535040659147077</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.123509909896209</v>
+        <v>0.1235099098962082</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.3883609936840874</v>
+        <v>0.3883609936840872</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>10.42740173883599</v>
+        <v>10.42740173883605</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.84296891915625</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1802082435197614</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2915329542000943</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1408903489756715</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.4245094151132121</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.84296891915625</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2200047216950324</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3745178591485536</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1617106832036531</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4690466092991531</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.12624704382832</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2192108084431282</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3737149996280753</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1613450494797529</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4681995391316914</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.09449289593078</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22750,19 +24550,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0322084829493593</v>
+        <v>0.0319313418602683</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1238977186361718</v>
+        <v>0.1230184938264981</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.05673978683186524</v>
+        <v>0.05645517033529398</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.1794672197069963</v>
+        <v>0.1786934298184136</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>5.371224368927201</v>
+        <v>5.341219717616604</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2160373522009475</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3671907442235911</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1618212381578926</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4647981843778518</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.86288474066159</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05992295846009434</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1910265001257446</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.0850309281834026</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2447916633794835</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>8.021044479997697</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23461,19 +25297,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06405520348965245</v>
+        <v>0.06401095821356592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1805619931141364</v>
+        <v>0.1804747764851038</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0716670780819532</v>
+        <v>0.07164295286326046</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2530912947725631</v>
+        <v>0.2530038699576865</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.855242636574197</v>
+        <v>6.852157736117675</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23491,19 +25327,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.05864872225077772</v>
+        <v>0.05864872225077793</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1763341665747481</v>
+        <v>0.176334166574739</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.06790107987307253</v>
+        <v>0.06790107987306944</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.24217498271039</v>
+        <v>0.2421749827103905</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>6.667150107723312</v>
+        <v>6.667150107722983</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23512,25 +25348,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8.937532340375366</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.09105884694568628</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2365740226678129</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.09208973487925085</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3017595846790724</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>8.937532340375366</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23600,25 +25472,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1547082517482206</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3312114155012318</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1205223023542923</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3933296985332033</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.63624153432465</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1541164284317134</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3304209979708719</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1202040167927454</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3925766529376313</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.60435484142015</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -24142,25 +26050,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1273639915365012</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2820927580211137</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1037172565148792</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3568809206675263</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>10.74144994979506</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1092839826800974</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2061224747067276</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.07623204349785448</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3305812799904093</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>8.402351827435641</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24678,19 +26622,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.02946724957781982</v>
+        <v>0.0294672495778199</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1355903757359148</v>
+        <v>0.1355903757359152</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1786086379436199</v>
+        <v>0.1786086379436207</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1716602737322174</v>
+        <v>0.1716602737322177</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>19.3871202228758</v>
+        <v>19.38712022287586</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -24699,25 +26643,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.23936576403386</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.02882234164840508</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1346358438386558</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1782026335640415</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1697714394366882</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.23936576403386</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24787,25 +26767,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03305308846285483</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1404249348871292</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1807210410393746</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1818050837101505</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>20.14459964807436</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03305653648278354</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1404242948339218</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1807094449721701</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1818145662007958</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>20.14438756250593</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25329,25 +27345,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05027167756281909</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1890445082057441</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2574086094636781</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2242134642763879</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>30.96596441416187</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.03161272506548164</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1433138771344301</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.188392573581647</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.177799676786775</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>20.64566583433371</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25884,19 +27936,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.04715387618176895</v>
+        <v>0.04715387618176899</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1729500943837443</v>
+        <v>0.1729500943837445</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3780308924726395</v>
+        <v>0.3780308924726398</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2171494328377787</v>
+        <v>0.2171494328377788</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>28.06572957006711</v>
+        <v>28.06572957006713</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -25905,25 +27957,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.92300018704432</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0466440454529416</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1721431343595131</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3804385996473661</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2159723256645203</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>27.92300018704432</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -25993,25 +28081,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04923392475364935</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1760133648423235</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3673839646209872</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2218871892508654</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>28.62579820002837</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04921990192127042</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1759957317742719</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3673842120922761</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2218555879874799</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>28.62294200339532</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26298,19 +28422,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1043211187799824</v>
+        <v>0.1042918554656885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2769047266036825</v>
+        <v>0.2768274759707217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4363233455866652</v>
+        <v>0.4362092471935619</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.3229877997386006</v>
+        <v>0.322942495602063</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>48.57374944354164</v>
+        <v>48.558326862203</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -26535,25 +28659,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05016421035023868</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1779620624788568</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3714125642024546</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2239736822714639</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.9286835700689</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05016421035023868</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1779620624788568</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3714125642024546</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2239736822714639</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>28.9286835700689</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27091,16 +29251,16 @@
         <v>0.03569239738273725</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1525323759891773</v>
+        <v>0.1525323759891772</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.2448156565686948</v>
+        <v>0.2448156565686947</v>
       </c>
       <c r="O8" s="8" t="n">
         <v>0.1889243165469635</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>23.35038074820975</v>
+        <v>23.35038074820974</v>
       </c>
     </row>
     <row r="9" ht="45.75" customHeight="1">
@@ -27109,25 +29269,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.32505932938447</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03533873515809639</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1523987492672792</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2472339444519311</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1879859972394125</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>23.32505932938447</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27197,25 +29393,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03866084845000534</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1569770101213317</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2436191478703021</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1966236212920649</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>24.06875521113116</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03865893860654303</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1569673272606375</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2436192704876844</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1966187646348716</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>24.06718148168309</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27498,23 +29730,23 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 2, 'max_depth': 10}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07180615308712127</v>
+        <v>0.07320703195060774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2122201805137945</v>
+        <v>0.2119611581341822</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2886918755616228</v>
+        <v>0.2866579263123252</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2679667014521044</v>
+        <v>0.2705679802759516</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>33.92141055062707</v>
+        <v>34.12995165139983</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -27532,19 +29764,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05622016801798629</v>
+        <v>0.05558735402491313</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1977601134638294</v>
+        <v>0.1966362320679094</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2788883355264187</v>
+        <v>0.2772252371529076</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2371079248316814</v>
+        <v>0.2357697054859108</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>31.46095451566283</v>
+        <v>31.25153238408679</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -27739,25 +29971,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03928414323802915</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1583265585977369</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2457944721322727</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1982022785893975</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>24.28600325196454</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04235283195936576</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1697655806035547</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2439579802029459</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2057980368209711</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>26.41839017711171</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1174,7 +1174,7 @@
         <v>0.167981825781541</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>21.12458799111074</v>
+        <v>21.12458799111075</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02337576148881242</v>
+        <v>0.02357028139626367</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.115124523849286</v>
+        <v>0.1156920885822566</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.15077189802033</v>
+        <v>0.1514837698054686</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1528913388286348</v>
+        <v>0.1535261586709694</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.04074429726641</v>
+        <v>17.12729000988461</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009918882225867171</v>
+        <v>0.009890393632261889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0762093922111011</v>
+        <v>0.07716239985938217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.103339563577711</v>
+        <v>0.1048602246011035</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09959358526465031</v>
+        <v>0.09945045818025118</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.56564306113846</v>
+        <v>10.77211330156281</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02706322875080294</v>
+        <v>0.02716994418788552</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1283682271727979</v>
+        <v>0.1286117344213913</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1626114030019388</v>
+        <v>0.1628233632604213</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1645090537046607</v>
+        <v>0.1648330797743145</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.14387768734252</v>
+        <v>18.19226260754601</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2502646105669156</v>
+        <v>0.2503045596954094</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4203605899252766</v>
+        <v>0.4205064629857364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1650308932638973</v>
+        <v>0.1650867830184104</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5002645405851943</v>
+        <v>0.5003044669952582</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.56664282027603</v>
+        <v>17.57253275831635</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5424149922666198</v>
+        <v>0.5424936241338881</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5936068834983713</v>
+        <v>0.5940548170399905</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.230563027311962</v>
+        <v>0.2305802511840812</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7364882838624249</v>
+        <v>0.7365416649001523</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.31464054043279</v>
+        <v>26.33320846476349</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6497800036645639</v>
+        <v>0.6742717316293358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6643608132862181</v>
+        <v>0.6799640123859835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2836867506489159</v>
+        <v>0.2890951666560383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.806089327348132</v>
+        <v>0.8211405066304645</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.35700470814326</v>
+        <v>28.10964629980228</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2565,23 +2565,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.7183553329750466</v>
+        <v>0.6010198460340449</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7473092207361476</v>
+        <v>0.6623926343441987</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3104967690457331</v>
+        <v>0.2823925063772501</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8475584540166221</v>
+        <v>0.7752546975246554</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>30.62523388606122</v>
+        <v>26.61225460467416</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3789,19 +3789,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2387937948086757</v>
+        <v>0.2382062891308186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3981423422370771</v>
+        <v>0.3960136663667142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1446613379472345</v>
+        <v>0.1438305799016356</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.488665319834215</v>
+        <v>0.4880638166580459</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.34659515232893</v>
+        <v>16.25741282234345</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5113938660016614</v>
+        <v>0.5117506526463595</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5508495630081106</v>
+        <v>0.5515745487056173</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2028200342132659</v>
+        <v>0.2031275451842583</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7151180783630501</v>
+        <v>0.7153674948209204</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.37050705290956</v>
+        <v>24.40317416331813</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3778512069967911</v>
+        <v>0.3628507746375009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4792567913575954</v>
+        <v>0.4667868953178131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1755078541617746</v>
+        <v>0.1715961063250794</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6146960281283678</v>
+        <v>0.6023709609845921</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.93451960490958</v>
+        <v>18.38070916880978</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3881,19 +3881,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>1.486020425077871</v>
+        <v>1.586565428181118</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>1.103612602319679</v>
+        <v>1.14402142735721</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4013614689610546</v>
+        <v>0.4170278149970758</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>1.21902437427554</v>
+        <v>1.259589388722022</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>50.36268230579501</v>
+        <v>53.27617607293192</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3943,19 +3943,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6987610674734832</v>
+        <v>0.6862533615030815</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.5525388983516279</v>
+        <v>0.5530357048321376</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2056573024765438</v>
+        <v>0.2059431961730487</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.8359192948326311</v>
+        <v>0.8284041051944887</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>25.77476724822433</v>
+        <v>25.64670096364963</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5097,23 +5097,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 200}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4509344355832376</v>
+        <v>0.4451392587638142</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6341638938025893</v>
+        <v>0.6257893083173726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2255753955390029</v>
+        <v>0.2225143384144811</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6715165192184311</v>
+        <v>0.6671875738979363</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.78212235076618</v>
+        <v>25.44180102105928</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6697478304538942</v>
+        <v>0.6532148836160618</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.7731491369403921</v>
+        <v>0.7643073657535737</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2754936441859318</v>
+        <v>0.2725607330623244</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.8183812256240328</v>
+        <v>0.8082171017839587</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>32.59249367175276</v>
+        <v>32.18153669825107</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.137144065011682e-05</v>
+        <v>7.473884192309715e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007262261376091176</v>
+        <v>0.007912645919432373</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002569310574013537</v>
+        <v>0.002793415485591434</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007833992637864605</v>
+        <v>0.008645162920564144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.256552410450441</v>
+        <v>0.2788825811832166</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1323336451086195</v>
+        <v>0.2835704940766048</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3346497346649554</v>
+        <v>0.4799716452899362</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1179709539433356</v>
+        <v>0.1679744585389702</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3637769166791917</v>
+        <v>0.5325133745518555</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>12.64963172021155</v>
+        <v>18.69995390713679</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6411,19 +6411,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06837675834942954</v>
+        <v>0.06828906907754269</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1660840583930752</v>
+        <v>0.1660031454688604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.405081033717142</v>
+        <v>1.404716770989868</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2614894995012793</v>
+        <v>0.26132177306444</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.97247665506653</v>
+        <v>30.96782358708862</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06716388299324935</v>
+        <v>0.06716504698153289</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1663666185632316</v>
+        <v>0.1665150944084904</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.395735225019429</v>
+        <v>1.396522440531627</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2591599563845645</v>
+        <v>0.2591622020695396</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>31.16206536567693</v>
+        <v>31.18378620901696</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05722098548770364</v>
+        <v>0.05760261576273392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1427458070247464</v>
+        <v>0.1453050101850462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.349564050652027</v>
+        <v>1.354148316875703</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2392090832048475</v>
+        <v>0.2400054494438281</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>28.16882113893083</v>
+        <v>28.62232494390161</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06298629971975954</v>
+        <v>0.06312743794671924</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1565390758141846</v>
+        <v>0.1568151349877399</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.413058259039933</v>
+        <v>1.413957698251817</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2509707148648215</v>
+        <v>0.2512517421764857</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>29.84496063886696</v>
+        <v>29.88357244860168</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05817360983179949</v>
+        <v>0.05817360983179948</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.1620114341350009</v>
@@ -7717,23 +7717,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05610819649426532</v>
+        <v>0.05480290474992824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1396409214708537</v>
+        <v>0.1362663846676322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.381831998038403</v>
+        <v>1.370630847539322</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2368716878275353</v>
+        <v>0.234100202370541</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.37356411596443</v>
+        <v>26.85803945067036</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0541484514249025</v>
+        <v>0.0537431560805981</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1389800285856359</v>
+        <v>0.1381492807053857</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.356850102538909</v>
+        <v>1.354240350879369</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2326981981556851</v>
+        <v>0.2318257019413467</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>27.49264267219392</v>
+        <v>27.35894372480637</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7779,53 +7779,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.04788222505723044</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1515557777026325</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.23088470880763</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2188200746212066</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>29.96372445163075</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.05042138670398369</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.1419222967941869</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>1.294461791080435</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.2245470701300369</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>28.47209819358884</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.04704352675031068</v>
+        <v>0.04701902777969352</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1399940328570381</v>
+        <v>0.1402918004715599</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.224123372364693</v>
+        <v>1.222863870600509</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2168951976192896</v>
+        <v>0.2168387137475537</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.2016146411509</v>
+        <v>28.25125200645364</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05826700863327801</v>
+        <v>0.05826700863327802</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1482019798959517</v>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04530654248729261</v>
+        <v>0.04530497696439843</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1254254845067909</v>
+        <v>0.125414378281398</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.280193639647616</v>
+        <v>1.28017528488641</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2128533356264182</v>
+        <v>0.2128496581261018</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.96315877578864</v>
+        <v>24.96152847804927</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03575447727305672</v>
+        <v>0.03577590325310855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.107667454943371</v>
+        <v>0.1074193864310488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.150459561478841</v>
+        <v>1.151520203632777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1890885434738359</v>
+        <v>0.1891451909330727</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.27134969120275</v>
+        <v>22.21950755272465</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0424770351819193</v>
+        <v>0.04228271942426</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1167542383044868</v>
+        <v>0.1164861365816433</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.245382204602487</v>
+        <v>1.242555747244803</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2060995758897124</v>
+        <v>0.2056276232033527</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.50484720518746</v>
+        <v>25.47366266223805</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9191,13 +9191,13 @@
         <v>0.1221650904190383</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.26488564570335</v>
+        <v>1.264885645703349</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.2064499845285855</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>24.88835064664135</v>
+        <v>24.88835064664134</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5901869898602382</v>
+        <v>0.5897739999535699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3511561609432729</v>
+        <v>0.351050137262519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6092983038728784</v>
+        <v>0.6089806787466875</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7682362851754909</v>
+        <v>0.7679674471965396</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.22155471925019</v>
+        <v>17.21938146302696</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10371,19 +10371,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5983640997073546</v>
+        <v>0.5982271100977514</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3446589181303556</v>
+        <v>0.3445360015796525</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6133826857007476</v>
+        <v>0.6133209847854537</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.773539979385264</v>
+        <v>0.7734514271095189</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>16.93294960464242</v>
+        <v>16.92896981904583</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5674800577433449</v>
+        <v>0.5673362959913755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3567994746399799</v>
+        <v>0.3568709883390723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.599402782354165</v>
+        <v>0.5994069539090118</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7533127224090569</v>
+        <v>0.7532172966623745</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.60163264720149</v>
+        <v>17.60470564064571</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5943220244166458</v>
+        <v>0.594137320691759</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3540054687656122</v>
+        <v>0.3538399458924584</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6160465847878341</v>
+        <v>0.615965863764205</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7709228394701028</v>
+        <v>0.7708030362497017</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.39427121037263</v>
+        <v>17.38849916325084</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11651,19 +11651,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5634955835267716</v>
+        <v>0.5638222180446911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.318109184579001</v>
+        <v>0.3181798391100712</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.614448570428488</v>
+        <v>0.6147129928437718</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.750663428925888</v>
+        <v>0.7508809613012513</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.89901752766029</v>
+        <v>15.89996211676155</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11681,19 +11681,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5950214209581537</v>
+        <v>0.5952748253101019</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3295474412518989</v>
+        <v>0.3307481497246637</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.6320811445555969</v>
+        <v>0.6326323190265714</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7713763160469432</v>
+        <v>0.7715405532505093</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>16.24795233608375</v>
+        <v>16.2991249276358</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5860605093483923</v>
+        <v>0.5892991315044958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4389230284029443</v>
+        <v>0.4396640718377642</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6232465010966073</v>
+        <v>0.6257725089533416</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7655458897730378</v>
+        <v>0.767658212686151</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>20.79176616697962</v>
+        <v>20.80013069607098</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4130147879773816</v>
+        <v>0.4123402444836489</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3741407004317208</v>
+        <v>0.3743354301890379</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.506870683834483</v>
+        <v>0.5052027758493444</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6426622658732825</v>
+        <v>0.6421372473884761</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.00551204980492</v>
+        <v>19.02729388181324</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11781,7 +11781,7 @@
         <v>0.3288564746206623</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.589974356161578</v>
+        <v>0.5899743561615779</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0.7191604211374539</v>
@@ -12961,19 +12961,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4243215881702444</v>
+        <v>0.4243254464043574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.276386422276228</v>
+        <v>0.2763843735385458</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2668951116491733</v>
+        <v>0.2668991908860667</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6513997145917738</v>
+        <v>0.651402676080132</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.82004917610345</v>
+        <v>13.81922875595015</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12991,19 +12991,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4426826962128318</v>
+        <v>0.4388605566667415</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2995331480991847</v>
+        <v>0.2962060538075965</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2794075281196119</v>
+        <v>0.2768308380110237</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6653440434939144</v>
+        <v>0.6624655135678699</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.8807138319668</v>
+        <v>14.73888942185761</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5099075898933754</v>
+        <v>0.4833110480804031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3499682101613171</v>
+        <v>0.3323668811171169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3130761937162092</v>
+        <v>0.3016166908981198</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7140781399072341</v>
+        <v>0.6952057595276402</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.77636558185466</v>
+        <v>16.14035095198482</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5891469431480181</v>
+        <v>0.5892598663392852</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4152214397920984</v>
+        <v>0.4136732487358717</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3399872951947032</v>
+        <v>0.3399187290895173</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7675590812100512</v>
+        <v>0.7676326376199003</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.2188059682825</v>
+        <v>19.1459332113692</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13088,7 +13088,7 @@
         <v>0.4511900567343961</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3610975982472612</v>
+        <v>0.3610975982472611</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.3000794451483995</v>
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0300444384030866</v>
+        <v>0.03009486196301656</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1387550588188342</v>
+        <v>0.1390092279535671</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1877853781678318</v>
+        <v>0.1882660894529745</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1733333159063387</v>
+        <v>0.1734787075205962</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>20.1433598333698</v>
+        <v>20.1994281026552</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03916839572346349</v>
+        <v>0.03685062537114835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1494436806584003</v>
+        <v>0.1438073095156766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1922929119879722</v>
+        <v>0.1848184087459747</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1979100697879304</v>
+        <v>0.1919651670776455</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>22.40191933070903</v>
+        <v>21.70756414417034</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15293,19 +15293,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03202774561195518</v>
+        <v>0.03202663670239734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1165796201638015</v>
+        <v>0.1164685606459949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1679281725176728</v>
+        <v>0.1674561545586678</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.178962972740048</v>
+        <v>0.1789598745596268</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>18.18079192887587</v>
+        <v>18.13235273608843</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15323,19 +15323,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03199585465890308</v>
+        <v>0.03199583570573197</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1179228448974186</v>
+        <v>0.1179217733880048</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1682584264206707</v>
+        <v>0.1682568430489785</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1788738512441186</v>
+        <v>0.1788737982649554</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.22715742123662</v>
+        <v>18.22699699429581</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0720240638632086</v>
+        <v>0.07406428434505442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1704959362305817</v>
+        <v>0.1689621719383237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.49250635132142</v>
+        <v>0.4973707245425751</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2683729939155738</v>
+        <v>0.2721475415010292</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.65801545882125</v>
+        <v>25.16359572199364</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09011980495563107</v>
+        <v>0.09210347834777445</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2139379440950616</v>
+        <v>0.2177711534603289</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5547048795110432</v>
+        <v>0.5586255547204305</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3001996085201163</v>
+        <v>0.3034855488285636</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.50784764908317</v>
+        <v>35.93618284010698</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15423,7 +15423,7 @@
         <v>0.1275215698063292</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1786801426428052</v>
+        <v>0.1786801426428051</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0.1832094091243871</v>
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04206914465998728</v>
+        <v>0.04198719632921865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1612103058978691</v>
+        <v>0.1609491555414681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2265647898081728</v>
+        <v>0.2261998852272687</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2051076416421077</v>
+        <v>0.204907775180003</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.91774118287764</v>
+        <v>25.86554632923177</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02739543147471665</v>
+        <v>0.02699209703383594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1244188215034506</v>
+        <v>0.1232599065521592</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1795585813724883</v>
+        <v>0.1787075717395616</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1655156532619095</v>
+        <v>0.1642927175313499</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.95493809751546</v>
+        <v>18.75669416359337</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17535,19 +17535,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1830207914958861</v>
+        <v>0.1830847045894806</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3150474285061959</v>
+        <v>0.3151033023939034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4736003904476047</v>
+        <v>0.4740755012444533</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4278092933725097</v>
+        <v>0.4278839849649442</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>59.22605608140655</v>
+        <v>59.24949824383155</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02341585739938078</v>
+        <v>0.02367516765155547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1240200416595757</v>
+        <v>0.1244824465744634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2563412346459212</v>
+        <v>0.2570998624637615</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1530224081609644</v>
+        <v>0.1538673703276802</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.24631880937863</v>
+        <v>21.32768341231823</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.5469031976127835</v>
+        <v>0.5469238103235091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.560237056976827</v>
+        <v>0.5602269093220942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2065353372747854</v>
+        <v>0.2065291842097828</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7395290377076369</v>
+        <v>0.7395429739531768</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.86915026010681</v>
+        <v>25.86896496864306</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02743408679705136</v>
+        <v>0.03451689706710531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1179819947927358</v>
+        <v>0.1436056282200177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04347440140822539</v>
+        <v>0.05316673857406447</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1656323845057221</v>
+        <v>0.1857872360177235</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.226184355764039</v>
+        <v>5.155784225975657</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.309358875134027</v>
+        <v>4.309272037069189</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.817342029973118</v>
+        <v>1.817178932034244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6823002222596197</v>
+        <v>0.6822351767618569</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2.075899533969317</v>
+        <v>2.075878618096248</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>105.1104250679203</v>
+        <v>105.10300227495</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.146788708383073</v>
+        <v>0.1393562060085375</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2972114924014509</v>
+        <v>0.2898854781649484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1200280371649059</v>
+        <v>0.1171002852256915</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3831301454898492</v>
+        <v>0.3733044414530016</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.75884918357459</v>
+        <v>10.52184576249816</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20597,23 +20597,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5.010149463545092</v>
+        <v>5.010529660908968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.649340310036113</v>
+        <v>1.642809383423928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6413000612478832</v>
+        <v>0.6382861155031918</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2.238336316004611</v>
+        <v>2.238421242954276</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>75.69835308142881</v>
+        <v>75.22176279634219</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7676058862717886</v>
+        <v>0.7841906749044149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7027780152124792</v>
+        <v>0.7114096050217351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3075552158469531</v>
+        <v>0.310594159270943</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8761312037998582</v>
+        <v>0.8855454109781242</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.26914696408423</v>
+        <v>25.5006162832859</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21713,19 +21713,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02226952898732772</v>
+        <v>0.02215333849899682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1043521646070238</v>
+        <v>0.1039239150284761</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1378486670155727</v>
+        <v>0.1367754526310311</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1492297858583457</v>
+        <v>0.1488399761455128</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.05021548651404</v>
+        <v>14.91800545121162</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21743,19 +21743,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02264112115803293</v>
+        <v>0.02265053509902282</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1055954731852747</v>
+        <v>0.1056080763682137</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.141104804089009</v>
+        <v>0.1406283479067658</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1504696685649069</v>
+        <v>0.1505009471698528</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.19129227668761</v>
+        <v>15.1776347570151</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02746021155375665</v>
+        <v>0.02788632626805512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1288301606807885</v>
+        <v>0.1289690328526019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2037921654380607</v>
+        <v>0.20325910539491</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1657112294135695</v>
+        <v>0.1669919946226618</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.60482477891457</v>
+        <v>19.62532934966739</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21801,23 +21801,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04080094931582628</v>
+        <v>0.05681180683986995</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1531216232181551</v>
+        <v>0.1762971568999051</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2849292942669406</v>
+        <v>0.318596080207506</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2019924486604048</v>
+        <v>0.2383522746689654</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>23.95371889087332</v>
+        <v>30.53856824733273</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09222548923173561</v>
+        <v>0.09227796100915821</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2054480540913658</v>
+        <v>0.205424006771278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06976991704619541</v>
+        <v>0.06975642409332185</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3036864982703966</v>
+        <v>0.3037728773428566</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.525203467937351</v>
+        <v>7.52415997685336</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23049,23 +23049,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06693605408120507</v>
+        <v>0.06697125093826933</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.191944173392569</v>
+        <v>0.1905047569123018</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.06603655403025251</v>
+        <v>0.06542128603897431</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2587200303053575</v>
+        <v>0.2587880424947593</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.00523593392572</v>
+        <v>6.943495204296035</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02084450207153967</v>
+        <v>0.02114102233028979</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1127919686043017</v>
+        <v>0.1126146550932104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03980932778994628</v>
+        <v>0.03963832714667655</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1443762517574815</v>
+        <v>0.145399526582069</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.035711605538356</v>
+        <v>4.026961135715025</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.05920568472864039</v>
+        <v>0.06145625336661358</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1728527675619035</v>
+        <v>0.1772805811642523</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05875122055018787</v>
+        <v>0.06028530167585641</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2433221829768926</v>
+        <v>0.2479037179362455</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>6.220510042193176</v>
+        <v>6.389093832684356</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,7 +24334,7 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.23980245279035</v>
+        <v>0.2398024527903499</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.3800366116121982</v>
@@ -24343,7 +24343,7 @@
         <v>0.1684871666052887</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4896962862737985</v>
+        <v>0.4896962862737984</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>15.35874254675666</v>
@@ -24370,7 +24370,7 @@
         <v>0.1960454645522804</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08566707667609454</v>
+        <v>0.08566707667609452</v>
       </c>
       <c r="O13" s="8" t="n">
         <v>0.2689693022467144</v>
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1737661248140193</v>
+        <v>0.1729360828727185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2956900806109712</v>
+        <v>0.2914640879171743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1411058955976009</v>
+        <v>0.1395920902017454</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4168526416061428</v>
+        <v>0.4158558438602474</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.04595118279768</v>
+        <v>11.89032531210782</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2565222437288633</v>
+        <v>0.2565222437288635</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4028941381270841</v>
+        <v>0.4028941381270844</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1751003326165177</v>
+        <v>0.1751003326165178</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5064802500876646</v>
+        <v>0.5064802500876648</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>17.34327411207281</v>
+        <v>17.34327411207282</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1375901471882381</v>
+        <v>0.1370078244359006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2969039404355628</v>
+        <v>0.2963505055187179</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1093566645515474</v>
+        <v>0.1091680326981805</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3709314588818777</v>
+        <v>0.3701456800178824</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>11.41701278609581</v>
+        <v>11.39418543230788</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25657,19 +25657,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1080109700783476</v>
+        <v>0.1079102139809386</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2135951745618858</v>
+        <v>0.2135775653392368</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.0766471324552969</v>
+        <v>0.07664592800359549</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3286502245219797</v>
+        <v>0.3284969010218188</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>8.295297374525987</v>
+        <v>8.294443549028397</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25689,19 +25689,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04497711974288564</v>
+        <v>0.04461938399975212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1175477492225844</v>
+        <v>0.1193074840944512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05079886419228911</v>
+        <v>0.05115232915415571</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.21207809821593</v>
+        <v>0.2112330087835519</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.621689623010499</v>
+        <v>4.677637261453571</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25719,19 +25719,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.2488609780076877</v>
+        <v>0.2493312960807466</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3005152372056968</v>
+        <v>0.3009416779645835</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1099628945874845</v>
+        <v>0.1101032228518157</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4988596776726775</v>
+        <v>0.4993308483167714</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>12.67599349865173</v>
+        <v>12.69463139235895</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25781,13 +25781,13 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0957069725873579</v>
+        <v>0.09570697258735793</v>
       </c>
       <c r="M15" s="8" t="n">
         <v>0.2565683708116451</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.09325216511175174</v>
+        <v>0.09325216511175177</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.3093654353468692</v>
@@ -26922,19 +26922,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04667372852435184</v>
+        <v>0.04676403910525208</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2009953935744818</v>
+        <v>0.2011469466555553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.275889541083233</v>
+        <v>0.2760496189776974</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2160410343530873</v>
+        <v>0.2162499459080905</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>32.42841082090746</v>
+        <v>32.45097759554976</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26952,19 +26952,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05122965827757081</v>
+        <v>0.05141911310846302</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1985657189899739</v>
+        <v>0.1989783341780924</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2608677794309608</v>
+        <v>0.2614620170052657</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2263396966454864</v>
+        <v>0.2267578292109514</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.90111333707937</v>
+        <v>30.98340652655246</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -26984,19 +26984,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001569246592400642</v>
+        <v>0.001561829613556769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03466415471644004</v>
+        <v>0.03459082175394172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05100464054007561</v>
+        <v>0.05084415660871069</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03961371722523199</v>
+        <v>0.03951999005005909</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.024150486073482</v>
+        <v>5.009695760780708</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27014,19 +27014,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03651785740614633</v>
+        <v>0.03277577800954715</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1453552340233041</v>
+        <v>0.1439722483341016</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2029592725739117</v>
+        <v>0.1965523023180261</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1910964609984872</v>
+        <v>0.1810408186281402</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>20.67030591468945</v>
+        <v>20.50418065868925</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28236,19 +28236,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0397387896237222</v>
+        <v>0.03974542779578519</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1679525945445543</v>
+        <v>0.1679978882827709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2909733451609461</v>
+        <v>0.2910804513375337</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1993459044568566</v>
+        <v>0.1993625536448236</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.66295151692519</v>
+        <v>27.67202225041781</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28266,19 +28266,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03813427494114905</v>
+        <v>0.0383282551586279</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1483280037739592</v>
+        <v>0.1489694890660377</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2853204329859617</v>
+        <v>0.2857206012989794</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1952799911438677</v>
+        <v>0.1957760331568394</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.29496120588907</v>
+        <v>24.39528178793136</v>
       </c>
     </row>
     <row r="14">
@@ -28298,19 +28298,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2632132303575502</v>
+        <v>0.2623126291950487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4328894874054263</v>
+        <v>0.4321485679737311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.915299076190988</v>
+        <v>0.9151229128501495</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5130431076990999</v>
+        <v>0.5121646504738967</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>73.30236714362198</v>
+        <v>73.06936286091178</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28324,23 +28324,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5068686398439933</v>
+        <v>0.2951433990803344</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.5921754147183204</v>
+        <v>0.458142095438453</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.399345242533254</v>
+        <v>0.9820474035080073</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7119470765752138</v>
+        <v>0.5432710180750805</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>88.7746260430136</v>
+        <v>76.81354898617543</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28360,19 +28360,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0862066939237647</v>
+        <v>0.08640726438454895</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2596958211912549</v>
+        <v>0.2599880351981274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4504336085917335</v>
+        <v>0.453089035659486</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.293609764694168</v>
+        <v>0.2939511258433091</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>46.25243437335627</v>
+        <v>46.29421620327702</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29548,19 +29548,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03837870152938863</v>
+        <v>0.03977272238650194</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1516215326716767</v>
+        <v>0.1538444503584589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2048504375001231</v>
+        <v>0.2057670925521302</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1959048277337458</v>
+        <v>0.1994309965539508</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.96140334376885</v>
+        <v>23.26973579291244</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29578,19 +29578,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02096638887175287</v>
+        <v>0.02101081189714714</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.118735934320733</v>
+        <v>0.118656496349468</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1799240226544149</v>
+        <v>0.179662177943483</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1447977516115249</v>
+        <v>0.1449510672508041</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.20300613875463</v>
+        <v>18.18535288766688</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29610,19 +29610,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0812982045520928</v>
+        <v>0.0820985291769738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2068204930796798</v>
+        <v>0.2072111081878472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4170356613441648</v>
+        <v>0.41812205224434</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2851284001149181</v>
+        <v>0.2865284090225153</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.01460411286835</v>
+        <v>29.06189639750212</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29640,19 +29640,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.333847406138728</v>
+        <v>0.3344263310150096</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4310545730455058</v>
+        <v>0.4309069918248266</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8874617099098845</v>
+        <v>0.8878551895199605</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.5777952977817732</v>
+        <v>0.5782960582737959</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>48.51276914377698</v>
+        <v>48.46585752861683</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4113546311855316</v>
+        <v>2.108299016952515</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4887799918651581</v>
+        <v>1.368191599845886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2319023311138153</v>
+        <v>0.6526263952255249</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6413693406965534</v>
+        <v>1.451998284073543</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.10965240001678</v>
+        <v>43.32165420055389</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1888059079647064</v>
+        <v>0.9434100985527039</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2910935878753662</v>
+        <v>0.7747453451156616</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1458281427621841</v>
+        <v>0.427330493927002</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4345180179977655</v>
+        <v>0.9712930034509174</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>11.65891513228416</v>
+        <v>27.6103138923645</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7906436324119568</v>
+        <v>0.3676514029502869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8330231904983521</v>
+        <v>0.5059288740158081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3241593837738037</v>
+        <v>0.2180795669555664</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8891814395341127</v>
+        <v>0.6063426448389448</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.02262401580811</v>
+        <v>18.49151849746704</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.584862351417542</v>
+        <v>1.42408287525177</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.232777714729309</v>
+        <v>1.135268211364746</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4665590524673462</v>
+        <v>0.4712605774402618</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.258913162778728</v>
+        <v>1.193349435518269</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.22343146800995</v>
+        <v>36.08791828155518</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.481488972902298</v>
+        <v>1.332369565963745</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6679688692092896</v>
+        <v>1.127983450889587</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.245789960026741</v>
+        <v>0.4222511053085327</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6938940646109447</v>
+        <v>1.154283139426261</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.66275233030319</v>
+        <v>34.4486266374588</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06419707834720612</v>
+        <v>0.02926648035645485</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.218426302075386</v>
+        <v>0.1368793696165085</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.07972476631402969</v>
+        <v>0.05062366276979446</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2533714236988973</v>
+        <v>0.1710744877427808</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>7.813522219657898</v>
+        <v>4.984890297055244</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07475727051496506</v>
+        <v>0.2390025556087494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1888732314109802</v>
+        <v>0.3782092034816742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.390791296958923</v>
+        <v>0.5917016267776489</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2734177582289875</v>
+        <v>0.4888788762144969</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.32720506191254</v>
+        <v>58.5395336151123</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1023266240954399</v>
+        <v>0.02120675146579742</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.219016507267952</v>
+        <v>0.1015633717179298</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.57041597366333</v>
+        <v>0.1501452326774597</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3198853296033438</v>
+        <v>0.1456253805687643</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.83747458457947</v>
+        <v>15.21658450365067</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1289936304092407</v>
+        <v>0.03040492534637451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3062675595283508</v>
+        <v>0.1259482949972153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.294403672218323</v>
+        <v>0.2913967370986938</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3591568326083199</v>
+        <v>0.1743700815689851</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>60.83758473396301</v>
+        <v>20.91211825609207</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1117742359638214</v>
+        <v>140.5651397705078</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2777276933193207</v>
+        <v>9.833030700683594</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.383860468864441</v>
+        <v>17.63191223144531</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3343265409204322</v>
+        <v>11.85601702809623</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>54.74899411201477</v>
+        <v>186.4493250846863</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2639.086181640625</v>
+        <v>0.04339007660746574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38.35010147094727</v>
+        <v>0.1676260381937027</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>138.5380706787109</v>
+        <v>0.5022374987602234</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>51.37203696215116</v>
+        <v>0.2083028482941742</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>184.7737073898315</v>
+        <v>30.22221922874451</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05866073071956635</v>
+        <v>0.2469077557325363</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1754409223794937</v>
+        <v>0.3986548483371735</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.325961709022522</v>
+        <v>0.825474739074707</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2421997744003209</v>
+        <v>0.4968981341608523</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.37178242206573</v>
+        <v>68.13485026359558</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.018771409988403</v>
+        <v>144320.5</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.029943108558655</v>
+        <v>305.727783203125</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.062412261962891</v>
+        <v>112.2775497436523</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.420834758157473</v>
+        <v>379.8953803351654</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.08333075046539</v>
+        <v>191.1107540130615</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.379871010780334</v>
+        <v>0.07114072144031525</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9411948323249817</v>
+        <v>0.2312900573015213</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.821742832660675</v>
+        <v>0.08384466916322708</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.174679109706278</v>
+        <v>0.2667221802556271</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.41254115104675</v>
+        <v>8.465120941400528</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.08116090297699</v>
+        <v>0.2442914247512817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.65973961353302</v>
+        <v>0.3725228011608124</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.853498637676239</v>
+        <v>0.1563712358474731</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.039788874232163</v>
+        <v>0.49425845946355</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>27.04893946647644</v>
+        <v>15.36189019680023</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9209474325180054</v>
+        <v>0.1224643066525459</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6412833333015442</v>
+        <v>0.2206839174032211</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.7797413468360901</v>
+        <v>0.1042953655123711</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9596600609163671</v>
+        <v>0.3499490057887662</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.75046825408936</v>
+        <v>9.064935892820358</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7008181810379028</v>
+        <v>179.4358978271484</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5767053961753845</v>
+        <v>11.64392757415771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3905299007892609</v>
+        <v>4.989164352416992</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8371488404327529</v>
+        <v>13.39536852151326</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.59310793876648</v>
+        <v>129.4896602630615</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>9.30992603302002</v>
+        <v>0.3835700750350952</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>2.365026950836182</v>
+        <v>0.4861272573471069</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.249288558959961</v>
+        <v>0.2450970113277435</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>3.051217139605115</v>
+        <v>0.6193303440290127</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>70.53481936454773</v>
+        <v>19.89586800336838</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01759390160441399</v>
+        <v>0.02766725234687328</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1171173304319382</v>
+        <v>0.1399473249912262</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1616466492414474</v>
+        <v>0.2024568319320679</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1326420054297054</v>
+        <v>0.1663347598876233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.29720830917358</v>
+        <v>21.03941589593887</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02669921889901161</v>
+        <v>0.05943045020103455</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1359866708517075</v>
+        <v>0.1967846155166626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2384525686502457</v>
+        <v>0.4836013317108154</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.163398956235992</v>
+        <v>0.2437836134793201</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.80144733190536</v>
+        <v>30.27094304561615</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.144630491733551</v>
+        <v>0.0558108314871788</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2755115926265717</v>
+        <v>0.1718596220016479</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6970069408416748</v>
+        <v>0.5891149044036865</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3803031576697083</v>
+        <v>0.2362431617786614</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.97141301631927</v>
+        <v>28.99075150489807</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08182992786169052</v>
+        <v>0.1780175715684891</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2451653480529785</v>
+        <v>0.3570794761180878</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0862547978758812</v>
+        <v>0.1384498178958893</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2860593082940853</v>
+        <v>0.4219212859864848</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.983583003282547</v>
+        <v>12.57842183113098</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2844455242156982</v>
+        <v>0.1528329253196716</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.477294534444809</v>
+        <v>0.2688169777393341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1730698645114899</v>
+        <v>0.125632643699646</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5333343456179231</v>
+        <v>0.3909385185929773</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.8711479306221</v>
+        <v>10.8117587864399</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1951726377010345</v>
+        <v>0.3140026926994324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2984996140003204</v>
+        <v>0.32636359333992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1475954800844193</v>
+        <v>0.2199126034975052</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4417834737753717</v>
+        <v>0.5603594317038239</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.06033602356911</v>
+        <v>14.0295684337616</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27624,19 +27624,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02347802557051182</v>
+        <v>0.02786392346024513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1261323392391205</v>
+        <v>0.139286607503891</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1972967684268951</v>
+        <v>0.2336604446172714</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1532254077185367</v>
+        <v>0.1669249036550422</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.8956925868988</v>
+        <v>20.40977030992508</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27654,19 +27654,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02592739649116993</v>
+        <v>0.1040442138910294</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1483745127916336</v>
+        <v>0.2785863280296326</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2285834401845932</v>
+        <v>0.4671984314918518</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1610198636540534</v>
+        <v>0.3225588533756737</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>20.88572233915329</v>
+        <v>35.2977991104126</v>
       </c>
     </row>
   </sheetData>
@@ -28938,19 +28938,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1367506831884384</v>
+        <v>0.09670798480510712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3149416148662567</v>
+        <v>0.2563409507274628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7185711860656738</v>
+        <v>0.7913568615913391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3697981654746795</v>
+        <v>0.3109790745453898</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>41.96732640266418</v>
+        <v>38.73085379600525</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -28968,19 +28968,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.09520917385816574</v>
+        <v>0.1013478189706802</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2555586099624634</v>
+        <v>0.2572270631790161</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6383888125419617</v>
+        <v>0.8149804472923279</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3085598383752586</v>
+        <v>0.3183517221104359</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.22274994850159</v>
+        <v>38.66460621356964</v>
       </c>
     </row>
   </sheetData>
@@ -30250,19 +30250,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02924543619155884</v>
+        <v>0.09572868794202805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1455320119857788</v>
+        <v>0.2471681833267212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.267098993062973</v>
+        <v>0.5754620432853699</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1710129708284107</v>
+        <v>0.3094005299640388</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>22.2108393907547</v>
+        <v>35.61958968639374</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30280,19 +30280,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04398733377456665</v>
+        <v>0.07470682263374329</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1819177716970444</v>
+        <v>0.2092523723840714</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3153436183929443</v>
+        <v>0.4592876732349396</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.209731575530645</v>
+        <v>0.2733254884450831</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.53919661045074</v>
+        <v>31.19246065616608</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window3/BA47 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02506994377512808</v>
+        <v>0.0585570828890949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1204394333749333</v>
+        <v>0.1900680500418124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1554113476381891</v>
+        <v>0.6028759923216462</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1583349101592194</v>
+        <v>0.2419857080265174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.29366000081036</v>
+        <v>33.46158762414411</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02413834745883446</v>
+        <v>0.0584803335154593</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1168507912056944</v>
+        <v>0.1898826168160094</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1501579673264291</v>
+        <v>0.6024001453881525</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1553652067189899</v>
+        <v>0.2418270735783305</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.6144468604101</v>
+        <v>33.43233026935793</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03485647438575197</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1494625637586017</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1900878887310976</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1866988869429916</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.68009911413364</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03551863922390231</v>
+        <v>0.0460953584721747</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.14971308303678</v>
+        <v>0.1582381125772183</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1897318938956792</v>
+        <v>0.49165621781234</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.18846389368763</v>
+        <v>0.2146982963886177</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.69794069798611</v>
+        <v>28.78730325922711</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0217911321669817</v>
+        <v>0.0972556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1227282732725143</v>
+        <v>0.26857254</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1767432391643524</v>
+        <v>0.5975893</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1476181972758836</v>
+        <v>0.3118583051306811</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.44444966316223</v>
+        <v>49.08514022827149</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,19 +1770,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02165912091732025</v>
+        <v>0.05485924</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1256087422370911</v>
+        <v>0.18107213</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1817547380924225</v>
+        <v>0.625454</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.147170380570685</v>
+        <v>0.2342204935697331</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.86060035228729</v>
+        <v>31.76999390125275</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01469117496162653</v>
+        <v>0.024318527</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09587417542934418</v>
+        <v>0.1340476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.120208814740181</v>
+        <v>0.19667795</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1212071572211251</v>
+        <v>0.1559439881184778</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.64975219964981</v>
+        <v>18.68437826633453</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01295225042849779</v>
+        <v>0.025865013</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09289656579494476</v>
+        <v>0.13385999</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1197231560945511</v>
+        <v>0.18818623</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1138079541530283</v>
+        <v>0.1608260326558853</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.30364441871643</v>
+        <v>18.64724904298782</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2205,23 +2205,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1336579474116222</v>
+        <v>0.8367112572798491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3015403207439115</v>
+        <v>0.72700791265441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.115546993731271</v>
+        <v>0.2832407184756344</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3655925975886577</v>
+        <v>0.9147192231935704</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.17975309491342</v>
+        <v>32.67734436012808</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4318035258278941</v>
+        <v>0.8942585503061133</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5295030046170794</v>
+        <v>0.8005148641373981</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.197126125936152</v>
+        <v>0.3285938505455055</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6571175890416373</v>
+        <v>0.9456524468884504</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.76315611636617</v>
+        <v>36.23858606905902</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2911,19 +2911,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3423929111659405</v>
+        <v>0.9711369733693792</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4839555227707612</v>
+        <v>0.9203400700747236</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1938734210168741</v>
+        <v>0.3855773229990475</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5851434962177573</v>
+        <v>0.9854628219112984</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.96800514515278</v>
+        <v>42.00972971510018</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3088447832401675</v>
+        <v>0.716160905864185</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4654480590533094</v>
+        <v>0.7276131995621105</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1738569664602071</v>
+        <v>0.3112311848245672</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5557380527192353</v>
+        <v>0.8462629058774732</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.09060244731515</v>
+        <v>32.93541199142864</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3051,23 +3051,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2674514949321747</v>
+        <v>0.30229342</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.380928635597229</v>
+        <v>0.41942292</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1806354075670242</v>
+        <v>0.23093319</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5171571278945836</v>
+        <v>0.5498121677790986</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.05910754203796</v>
+        <v>17.92301833629608</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1869288980960846</v>
+        <v>0.41946515</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3010452389717102</v>
+        <v>0.4561799</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1475583761930466</v>
+        <v>0.27327585</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4323527472979495</v>
+        <v>0.6476612960563636</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>12.16488480567932</v>
+        <v>18.30025166273117</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1012623086571693</v>
+        <v>1.3670964</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2823186814785004</v>
+        <v>1.0196697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1045922711491585</v>
+        <v>0.3663514</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3182173921349513</v>
+        <v>1.169228987026401</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.33300086855888</v>
+        <v>47.65849411487579</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.109317310154438</v>
+        <v>0.17031275</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2756785154342651</v>
+        <v>0.32306027</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09670362621545792</v>
+        <v>0.118387826</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3306316835308407</v>
+        <v>0.4126896501722278</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.21770462393761</v>
+        <v>12.24696934223175</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.108299016952515</v>
+        <v>2.1094806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.368191599845886</v>
+        <v>1.3685397</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6526263952255249</v>
+        <v>0.6527884</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.451998284073543</v>
+        <v>1.452405115465565</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>43.32165420055389</v>
+        <v>43.32956075668335</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.9434100985527039</v>
+        <v>0.9443332</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7747453451156616</v>
+        <v>0.7742668</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.427330493927002</v>
+        <v>0.42722064</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.9712930034509174</v>
+        <v>0.9717680771080826</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.6103138923645</v>
+        <v>27.59126722812653</v>
       </c>
     </row>
   </sheetData>
@@ -3517,23 +3517,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1408443292089583</v>
+        <v>0.4048320392953825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3133846287408427</v>
+        <v>0.5272718404145349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1169136822588358</v>
+        <v>0.2164069375134021</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3752923250067317</v>
+        <v>0.6362641269908138</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.5858057811182</v>
+        <v>21.76694488489234</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.543743623869112</v>
+        <v>0.4604903545900342</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.6499955999854622</v>
+        <v>0.4975005514034424</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2520025263077346</v>
+        <v>0.1995859928583225</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7373897367533074</v>
+        <v>0.6785943962265193</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.04244575039206</v>
+        <v>20.55398629291181</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.636082291854108</v>
+        <v>1.395698379855849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.802031276144567</v>
+        <v>1.066936176755936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6587131787063392</v>
+        <v>0.3909110829403516</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.90685140791151</v>
+        <v>1.1813967918764</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>104.7303008137749</v>
+        <v>49.98351616445074</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6436750472823586</v>
+        <v>2.273977487727268</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6901213223468707</v>
+        <v>1.436962212482174</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2597569254713324</v>
+        <v>0.5255077940992114</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8022936166282009</v>
+        <v>1.507971315286623</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.67440185745149</v>
+        <v>73.42056450559376</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1026597693562508</v>
+        <v>0.9153009</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2710290551185608</v>
+        <v>0.7973183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1064721792936325</v>
+        <v>0.3379828</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3204056325289097</v>
+        <v>0.956713596487736</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.20876318216324</v>
+        <v>25.99304914474488</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1163084954023361</v>
+        <v>0.58273643</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2423282265663147</v>
+        <v>0.6389507</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.09643658250570297</v>
+        <v>0.2838388</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3410403134562484</v>
+        <v>0.7633717525245073</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>9.165143966674805</v>
+        <v>22.33420014381409</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.124664418399334</v>
+        <v>1.9182304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2624711692333221</v>
+        <v>1.0086781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08989758789539337</v>
+        <v>0.36956254</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.353078487590697</v>
+        <v>1.385001954652254</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.652020782232285</v>
+        <v>56.67503476142883</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4455,23 +4455,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03432462736964226</v>
+        <v>1.0431241</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1458222419023514</v>
+        <v>0.7795414000000001</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05479502305388451</v>
+        <v>0.27418965</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1852690674927746</v>
+        <v>1.021334460254957</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.249214917421341</v>
+        <v>34.34741199016571</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3676514029502869</v>
+        <v>0.36760482</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5059288740158081</v>
+        <v>0.5058735600000001</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2180795669555664</v>
+        <v>0.21804994</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6063426448389448</v>
+        <v>0.6063042321478508</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.49151849746704</v>
+        <v>18.48965883255005</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.42408287525177</v>
+        <v>1.4244795</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.135268211364746</v>
+        <v>1.1354704</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4712605774402618</v>
+        <v>0.4713362</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.193349435518269</v>
+        <v>1.193515598791279</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.08791828155518</v>
+        <v>36.09314560890198</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4859,23 +4859,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02544986690562601</v>
+        <v>0.4754119908817577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1310614917356446</v>
+        <v>0.5673233439587195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04662453162893012</v>
+        <v>0.2056413342865411</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1595301441910776</v>
+        <v>0.6895012624221638</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.765421001351303</v>
+        <v>22.92674915074289</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1257272827346897</v>
+        <v>0.5948100961433557</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2932312417948107</v>
+        <v>0.6714241257500857</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1057463284917834</v>
+        <v>0.2390827216748353</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3545804319681075</v>
+        <v>0.7712393248164643</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.36888077758185</v>
+        <v>28.30556914296199</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.262405961308577</v>
+        <v>3.732286505118859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.051402340560426</v>
+        <v>1.764311026371812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3817444481449406</v>
+        <v>0.634697154732937</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.123568405264485</v>
+        <v>1.931912654629825</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>49.33337541641126</v>
+        <v>102.9139761143296</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.834166403530452</v>
+        <v>5.283455624967261</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.14669439114793</v>
+        <v>2.282243388834157</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4061029749656641</v>
+        <v>0.8331765933639982</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.354313997391466</v>
+        <v>2.298576869492788</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>58.07544514961383</v>
+        <v>143.3348077032531</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04965189844369888</v>
+        <v>0.64510685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1859682500362396</v>
+        <v>0.7317971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06674764305353165</v>
+        <v>0.26751003</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2228270594961458</v>
+        <v>0.8031854406390818</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.734443455934525</v>
+        <v>31.77421391010284</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04843815788626671</v>
+        <v>0.27706394</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1703043282032013</v>
+        <v>0.45596278</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06120994687080383</v>
+        <v>0.17548929</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2200867053828257</v>
+        <v>0.5263686312795454</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.157742813229561</v>
+        <v>15.66120982170105</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5737,23 +5737,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04839068651199341</v>
+        <v>0.9852668999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.190775528550148</v>
+        <v>0.93770146</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06542883813381195</v>
+        <v>0.3315878</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2199788319634264</v>
+        <v>0.9926061272752748</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.787993013858795</v>
+        <v>40.66891074180603</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09384477138519287</v>
+        <v>0.16834995</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2683385610580444</v>
+        <v>0.35980883</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09375232458114624</v>
+        <v>0.12700732</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3063409397798356</v>
+        <v>0.4103047056830582</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.975908696651459</v>
+        <v>12.58400082588196</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.332369565963745</v>
+        <v>1.3237904</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.127983450889587</v>
+        <v>1.1243759</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4222511053085327</v>
+        <v>0.42088178</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.154283139426261</v>
+        <v>1.15056092017009</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>34.4486266374588</v>
+        <v>34.35803353786469</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02926648035645485</v>
+        <v>0.02947381</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1368793696165085</v>
+        <v>0.13726993</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.05062366276979446</v>
+        <v>0.05078289</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1710744877427808</v>
+        <v>0.1716793800238415</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>4.984890297055244</v>
+        <v>4.998511075973511</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07104648092786248</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2083070480006544</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.318157745146223</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.266545457526221</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.324410485385</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07104648092786248</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2083070480006544</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.318157745146223</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.266545457526221</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.324410485385</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,53 +6263,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4278624226315148</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5828137692720564</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.8678623339195468</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.654111934328915</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>138.7180161936779</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>0.4940958805296309</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.587322878439373</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1.47060352983894</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.7029195405803077</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>128.0849738559002</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
-        </is>
-      </c>
       <c r="L11" s="8" t="n">
-        <v>0.3506672841065752</v>
+        <v>0.0235907278368344</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4853348753837012</v>
+        <v>0.1260290149777683</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.193904683134807</v>
+        <v>0.1749321377647677</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5921716677675276</v>
+        <v>0.1535927336719885</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>100.0316918607779</v>
+        <v>18.99735058914556</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6845,19 +6845,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07104647936608449</v>
+        <v>0.0354584795182731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.208307045930266</v>
+        <v>0.1408949817142711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.318157728768604</v>
+        <v>0.1851304541419977</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2665454545965556</v>
+        <v>0.1883042206597427</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.32441026911053</v>
+        <v>20.96062819945044</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6875,19 +6875,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07104647936608449</v>
+        <v>0.0379161070170147</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.208307045930266</v>
+        <v>0.1397772634794527</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.318157728768604</v>
+        <v>0.1835769996043147</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2665454545965556</v>
+        <v>0.1947205870395186</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>38.32441026911053</v>
+        <v>20.87376987924163</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6985,23 +6985,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05867500230669975</v>
+        <v>0.02206174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1619278639554977</v>
+        <v>0.13138346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.319299936294556</v>
+        <v>0.2033227</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2422292350371849</v>
+        <v>0.1485319464522939</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>33.28613936901093</v>
+        <v>19.5239394903183</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06110038608312607</v>
+        <v>0.0077562938</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1441348642110825</v>
+        <v>0.07543796</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.354312539100647</v>
+        <v>0.12055575</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2471849228475031</v>
+        <v>0.0880698231592375</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.69750654697418</v>
+        <v>11.26048043370247</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7047,23 +7047,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1497609615325928</v>
+        <v>0.05820715</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3181955516338348</v>
+        <v>0.20021914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5217246413230896</v>
+        <v>0.2917168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3869896142438357</v>
+        <v>0.2412615811700995</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>68.71525645256042</v>
+        <v>37.58922219276428</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05824960023164749</v>
+        <v>0.05262541</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.186415508389473</v>
+        <v>0.16708079</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6479576230049133</v>
+        <v>0.22061193</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2413495395306307</v>
+        <v>0.2294022891314949</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>33.00651907920837</v>
+        <v>26.98865532875061</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2390025556087494</v>
+        <v>0.25129804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3782092034816742</v>
+        <v>0.3824739</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5917016267776489</v>
+        <v>0.5969464</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4888788762144969</v>
+        <v>0.5012963596033748</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>58.5395336151123</v>
+        <v>57.95392394065857</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.02120675146579742</v>
+        <v>0.021196255</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1015633717179298</v>
+        <v>0.101478346</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1501452326774597</v>
+        <v>0.14996776</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1456253805687643</v>
+        <v>0.145589338415907</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.21658450365067</v>
+        <v>15.202796459198</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05863607043408339</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1395060220612029</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.424711814541688</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2421488600718232</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.58856900232968</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05863607043408339</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1395060220612029</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.424711814541688</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2421488600718232</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.58856900232968</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7577,19 +7577,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04535182104352208</v>
+        <v>0.0231969789341985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1227867387802354</v>
+        <v>0.1210507348674067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.232294739965326</v>
+        <v>0.2069660625570176</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2129596699929873</v>
+        <v>0.1523055446600634</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.88865037272765</v>
+        <v>20.10267011236829</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05311266471127245</v>
+        <v>0.763856876022421</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1408622325942571</v>
+        <v>0.7540247775196649</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.306962496974057</v>
+        <v>1.448034555923401</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2304618508805144</v>
+        <v>0.8739890594409183</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.74558768725772</v>
+        <v>135.7710933393602</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8155,19 +8155,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05221256431542556</v>
+        <v>0.0208671375394989</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1654377653458955</v>
+        <v>0.114310704468709</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.233223104984405</v>
+        <v>0.2044948119088017</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2285006877788895</v>
+        <v>0.1444546210389233</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.42236033105063</v>
+        <v>19.29253052972604</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04948103017988556</v>
+        <v>0.0310661997933114</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1613446083530265</v>
+        <v>0.1360077514708842</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.196622838733848</v>
+        <v>0.2837870077693741</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2224433190273099</v>
+        <v>0.1762560631391484</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.92145292128419</v>
+        <v>22.73057028524828</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1003178134560585</v>
+        <v>0.02302396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2373921275138855</v>
+        <v>0.103570245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.610312461853027</v>
+        <v>0.26661983</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3167298745872553</v>
+        <v>0.1517364796258897</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>40.98810851573944</v>
+        <v>17.74607002735138</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08515667170286179</v>
+        <v>0.05713597</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2114171832799911</v>
+        <v>0.19321518</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.415354013442993</v>
+        <v>0.4470521</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2918161607979616</v>
+        <v>0.2390313146857664</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.65379595756531</v>
+        <v>29.76410388946533</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0485677681863308</v>
+        <v>0.013934788</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1434234231710434</v>
+        <v>0.082612835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5662615895271301</v>
+        <v>0.111381926</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2203809614878989</v>
+        <v>0.1180457042595643</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.50611400604248</v>
+        <v>12.23008558154106</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05699502676725388</v>
+        <v>0.07477029</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1296510249376297</v>
+        <v>0.21231534</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.6072970628738403</v>
+        <v>0.3015103</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.238736312209211</v>
+        <v>0.2734415598976642</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.8194072842598</v>
+        <v>36.12853586673737</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03040492534637451</v>
+        <v>0.030407086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1259482949972153</v>
+        <v>0.12594599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2913967370986938</v>
+        <v>0.291421</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1743700815689851</v>
+        <v>0.1743762770985423</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.91211825609207</v>
+        <v>20.91177254915237</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>140.5651397705078</v>
+        <v>141.43498</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>9.833030700683594</v>
+        <v>9.846458999999999</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>17.63191223144531</v>
+        <v>17.653126</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>11.85601702809623</v>
+        <v>11.89264404158321</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>186.4493250846863</v>
+        <v>187.051010131836</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08033955189997374</v>
+        <v>0.0550850308439958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1725177955108849</v>
+        <v>0.1906331880490008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.569699396556588</v>
+        <v>0.4393385467466119</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2834423255266823</v>
+        <v>0.2347020043459277</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.32964991164852</v>
+        <v>34.54974778200711</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07724027268408977</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1733781194039651</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.53765258576544</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2779213426206951</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.6576546956119</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8086272238144006</v>
+        <v>0.0305440548482104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7072299162563563</v>
+        <v>0.1285808539088443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.304271597381245</v>
+        <v>0.2556884867241031</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8992370231559644</v>
+        <v>0.174768575116382</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>118.7229360898867</v>
+        <v>22.54316232857203</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03532664594051049</v>
+        <v>0.4613974633013984</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1048968313675564</v>
+        <v>0.6620422478618472</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.140652235447861</v>
+        <v>1.160408251037021</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1879538399195677</v>
+        <v>0.6792624406673745</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.0082456474347</v>
+        <v>178.7588309026341</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04767229408049341</v>
+        <v>0.0481713264076971</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1413554058763955</v>
+        <v>0.1704383135878145</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.273888781419403</v>
+        <v>0.3925628585100341</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.21833985911989</v>
+        <v>0.219479671969176</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.75667499498661</v>
+        <v>30.42450958178341</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05193733463458277</v>
+        <v>0.041636748660384</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.144132618204037</v>
+        <v>0.1615945790444403</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.303468382476146</v>
+        <v>0.3868369398225093</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2278976406955166</v>
+        <v>0.2040508482226526</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.78202864546131</v>
+        <v>28.89229131433686</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,53 +9605,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.022461696</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.10232202</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.37605703</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1498722642671943</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.503553211689</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.0588083304464817</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1911791414022446</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.7994844913482666</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.2425042895424361</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>52.63201594352722</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.06715608388185501</v>
+        <v>0.04332032</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2117420732975006</v>
+        <v>0.14433885</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.071150183677673</v>
+        <v>0.5126478</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2591449090409746</v>
+        <v>0.2081353418971104</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>49.70252513885498</v>
+        <v>25.76242983341217</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9667,23 +9667,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08311735093593597</v>
+        <v>0.020040318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2481769323348999</v>
+        <v>0.10489948</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5903306603431702</v>
+        <v>0.15017389</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2883007994021799</v>
+        <v>0.141563831432557</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>44.23376321792603</v>
+        <v>15.94443917274475</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03607242554426193</v>
+        <v>0.024565903</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1095123961567879</v>
+        <v>0.116721176</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4245294332504272</v>
+        <v>0.20762348</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1899274217806948</v>
+        <v>0.1567351379554698</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.1850483417511</v>
+        <v>20.26454508304596</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04339007660746574</v>
+        <v>0.043322057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1676260381937027</v>
+        <v>0.16773464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5022374987602234</v>
+        <v>0.5009314</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2083028482941742</v>
+        <v>0.2081395121833097</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.22221922874451</v>
+        <v>30.22764325141907</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2469077557325363</v>
+        <v>0.24690767</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3986548483371735</v>
+        <v>0.39865503</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.825474739074707</v>
+        <v>0.8254737</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4968981341608523</v>
+        <v>0.4968980441957576</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>68.13485026359558</v>
+        <v>68.13538074493408</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5886589029332243</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3683687787069905</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6141325627803086</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7672410983082334</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.85899095725848</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.5886589029332243</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3683687787069905</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6141325627803086</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7672410983082334</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.85899095725848</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.770264953402267</v>
+        <v>2267.673053357885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.786370639442685</v>
+        <v>38.83475702263956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9052216982368519</v>
+        <v>14.37628013859702</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.402137580032057</v>
+        <v>47.62009085835395</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>78.98542683165894</v>
+        <v>163.1985285301429</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.30241379273137</v>
+        <v>0.1219036428419916</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.43635939263768</v>
+        <v>0.2740688603568633</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.001783721084132</v>
+        <v>0.09744332010421471</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.510460872575267</v>
+        <v>0.3491470218145812</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>173.8949150152836</v>
+        <v>10.44551995570595</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5902369165733402</v>
+        <v>0.312603859687697</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3987376779791368</v>
+        <v>0.2892214343800685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6155327728130009</v>
+        <v>0.1008655178183158</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7682687788614999</v>
+        <v>0.5591098815865241</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.08593426789971</v>
+        <v>12.37781776794477</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5902369165733402</v>
+        <v>0.114193630912288</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3987376779791368</v>
+        <v>0.2280990254273743</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6155327728130009</v>
+        <v>0.0796958483805584</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7682687788614999</v>
+        <v>0.3379254813006679</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.08593426789971</v>
+        <v>8.557141728846551</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6078977584838867</v>
+        <v>0.112065695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3940085470676422</v>
+        <v>0.2958214</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5959764122962952</v>
+        <v>0.11011186</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7796779838394097</v>
+        <v>0.3347621472421762</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.82291585206985</v>
+        <v>10.74113100767136</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10945,23 +10945,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.666482150554657</v>
+        <v>0.2632434</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4458754360675812</v>
+        <v>0.4056985</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.65900057554245</v>
+        <v>0.1435488</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8163835805273505</v>
+        <v>0.5130725163278892</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.59878706932068</v>
+        <v>15.89902192354202</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2549581527709961</v>
+        <v>0.42481047</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3294937014579773</v>
+        <v>0.50895035</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2158469408750534</v>
+        <v>0.18551591</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5049338102870475</v>
+        <v>0.6517748607844147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.46121037006378</v>
+        <v>19.87526416778564</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3008857071399689</v>
+        <v>0.2570411</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4062292873859406</v>
+        <v>0.4064827</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2318483293056488</v>
+        <v>0.14451808</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5485304979123484</v>
+        <v>0.5069922057461208</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.52411031723022</v>
+        <v>15.99794775247574</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>144320.5</v>
+        <v>122370.16</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>305.727783203125</v>
+        <v>283.68198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112.2775497436523</v>
+        <v>104.16265</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>379.8953803351654</v>
+        <v>349.8144597497365</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>191.1107540130615</v>
+        <v>184.2015147209167</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07114072144031525</v>
+        <v>0.07115004</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2312900573015213</v>
+        <v>0.23125906</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.08384466916322708</v>
+        <v>0.083833</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2667221802556271</v>
+        <v>0.2667396523140907</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>8.465120941400528</v>
+        <v>8.464129269123077</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.575800990090811</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.69951706871148</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.603777474946252</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4116583405529448</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.592939721306898</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7770311930329773</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.69036863751031</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,23 +11503,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.584463596161395</v>
+        <v>0.2321488173601102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.490098854855686</v>
+        <v>0.3472283443560711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.1348225073585086</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.566020965651176</v>
+        <v>0.4818182409997677</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>14.12202563974766</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.600071993827247</v>
+        <v>0.2428035837232647</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.500735436565833</v>
+        <v>0.3566346613227211</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9995078266471222</v>
+        <v>0.1388231081414036</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.56906052747444</v>
+        <v>0.4927510362477838</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>191.6920275992747</v>
+        <v>14.52242885990028</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,53 +12081,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0520005022551032</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1768123845987203</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.0749356135033455</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2280361862843334</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>7.315580523128603</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.5454570778054874</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.3636526000295392</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.6098324653552993</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.7385506602836988</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>17.83098115787155</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.5772625751375634</v>
+        <v>0.0748959817896134</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3604456954666368</v>
+        <v>0.2079345297364125</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6268188464909228</v>
+        <v>0.0811481959434419</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7597779775286747</v>
+        <v>0.2736713024590145</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.56198123139326</v>
+        <v>8.360597205271333</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12225,53 +12225,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.24412689</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3771129</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.16485111</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4940919814461466</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>15.00794142484665</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.6580232381820679</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.4510447978973389</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.6776918172836304</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.8111863153320992</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>20.870740711689</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.6281725168228149</v>
+        <v>0.17087409</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.459376722574234</v>
+        <v>0.2881174</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.650696873664856</v>
+        <v>0.13131161</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7925733510677828</v>
+        <v>0.4133691921304843</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.31986171007156</v>
+        <v>11.55512481927872</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12287,23 +12287,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2550119757652283</v>
+        <v>0.20391943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3618099987506866</v>
+        <v>0.3205858</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1926373094320297</v>
+        <v>0.11312121</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5049871045534017</v>
+        <v>0.4515743854634888</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.69518148899078</v>
+        <v>12.52119392156601</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2490645349025726</v>
+        <v>0.18032023</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3009190559387207</v>
+        <v>0.2791785</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.18534916639328</v>
+        <v>0.09836353</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4990636581665436</v>
+        <v>0.4246412993417069</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>13.21420222520828</v>
+        <v>10.98744943737984</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2442914247512817</v>
+        <v>0.24440095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3725228011608124</v>
+        <v>0.37263674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1563712358474731</v>
+        <v>0.15641046</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.49425845946355</v>
+        <v>0.4943692428600878</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.36189019680023</v>
+        <v>15.36715477705002</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1224643066525459</v>
+        <v>0.12252429</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2206839174032211</v>
+        <v>0.22100265</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1042953655123711</v>
+        <v>0.10435279</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3499490057887662</v>
+        <v>0.3500347001040493</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>9.064935892820358</v>
+        <v>9.076714515686035</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4565236439698945</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3214451307546496</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2784186702703805</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6756653342964211</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>15.14863252482053</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'auto', 'max_depth': 10, 'criterion': 'friedman_mse', 'ccp_alpha': 0.1}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.4270169515680203</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3622185772336949</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2834112232173736</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.6534653407549786</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.02337332743731</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3828973449548602</v>
+        <v>12.7426428614056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2767116045468256</v>
+        <v>2.824081644605194</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2581886651809876</v>
+        <v>1.178890366687008</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6187869948171666</v>
+        <v>3.569683860148627</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.18691634597564</v>
+        <v>115.7936324827505</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12847,19 +12847,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>10.57364582494973</v>
+        <v>7.759057808311915</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.862974126151027</v>
+        <v>2.640074204141441</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.28433899826324</v>
+        <v>1.026678959253247</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>3.251714290178295</v>
+        <v>2.78550853675086</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>150.3115720313478</v>
+        <v>162.6802794884015</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4997329523910997</v>
+        <v>0.1435482652848733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3381838440976835</v>
+        <v>0.263146464236506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3050248354469393</v>
+        <v>0.1405774976363012</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7069179247912021</v>
+        <v>0.3788776389348853</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>16.26494608117899</v>
+        <v>12.04160933947837</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4928849506895238</v>
+        <v>0.1316785249328767</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3376698726726424</v>
+        <v>0.2437134741356681</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3031278112053828</v>
+        <v>0.1360751672891207</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7020576548186935</v>
+        <v>0.362875357296244</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.27450736960808</v>
+        <v>11.10366171721495</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,53 +13535,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3579126</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4237831</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.23795739</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5982579711465914</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.85535961389542</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.6284239292144775</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.3963180184364319</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.3396179676055908</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.7927319403269163</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>17.83523559570312</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.6248776912689209</v>
+        <v>0.54024446</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4287548661231995</v>
+        <v>0.6032980999999999</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3558781147003174</v>
+        <v>0.30889103</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7904920564236688</v>
+        <v>0.7350132380480613</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.37090158462524</v>
+        <v>26.10979974269867</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,23 +13597,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2584697306156158</v>
+        <v>0.2240867</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3128498494625092</v>
+        <v>0.34906432</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1795715689659119</v>
+        <v>0.13244136</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5083991843184014</v>
+        <v>0.4733779693542619</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.23589086532593</v>
+        <v>13.48891407251358</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13627,23 +13627,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.274994432926178</v>
+        <v>0.13280465</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4160744845867157</v>
+        <v>0.27587673</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2013571411371231</v>
+        <v>0.103310466</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.524399116061591</v>
+        <v>0.364423719162256</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.00493693351746</v>
+        <v>10.67412570118904</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>179.4358978271484</v>
+        <v>179.44807</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.64392757415771</v>
+        <v>11.644808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.989164352416992</v>
+        <v>4.98955</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.39536852151326</v>
+        <v>13.3958230184196</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>129.4896602630615</v>
+        <v>129.4937491416931</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.3835700750350952</v>
+        <v>0.3835694</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4861272573471069</v>
+        <v>0.48612675</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2450970113277435</v>
+        <v>0.24509683</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6193303440290127</v>
+        <v>0.6193297906460501</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.89586800336838</v>
+        <v>19.89584565162659</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14055,19 +14055,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03888848602406704</v>
+        <v>0.0317485484092722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1453186898624627</v>
+        <v>0.1382061565647935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1829783001449187</v>
+        <v>0.1882956642551087</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1972016379852537</v>
+        <v>0.1781812235036909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.15238409933173</v>
+        <v>20.70097563297479</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02700234042053324</v>
+        <v>0.0282638984694022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1303637199314213</v>
+        <v>0.1262443846682863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1705149191926797</v>
+        <v>0.1735518149889025</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1643238887701153</v>
+        <v>0.1681187035085694</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.67723432625509</v>
+        <v>18.98488966567923</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02739814110100269</v>
+        <v>0.04974909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1404089778661728</v>
+        <v>0.18665068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2006563097238541</v>
+        <v>0.32963842</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1655238384674627</v>
+        <v>0.2230450431361023</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.07513493299484</v>
+        <v>26.11238360404968</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05128805339336395</v>
+        <v>0.023455713</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1691429764032364</v>
+        <v>0.1268913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2039474546909332</v>
+        <v>0.17118503</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2264686587441272</v>
+        <v>0.1531525805994439</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.75997602939606</v>
+        <v>17.64899492263794</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02766725234687328</v>
+        <v>0.02766047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1399473249912262</v>
+        <v>0.13993363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2024568319320679</v>
+        <v>0.20245157</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1663347598876233</v>
+        <v>0.1663143723671677</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.03941589593887</v>
+        <v>21.03717774152756</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03761583540505219</v>
+        <v>0.06773169043605751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.144287205281267</v>
+        <v>0.2091329002885126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2937016910191205</v>
+        <v>0.7527780862902532</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1939480224314035</v>
+        <v>0.2602531276201259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.56078596066331</v>
+        <v>37.93789869843239</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0375569925801675</v>
+        <v>0.0676282748367691</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1441331411762939</v>
+        <v>0.2089367591503214</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2934467865006318</v>
+        <v>0.7522284993089611</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1937962656507279</v>
+        <v>0.2600543690015016</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.54026873223562</v>
+        <v>37.90751932028367</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03949482705945737</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1384310754752542</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2136236453377862</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1987330547731237</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.34454461069003</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04102615452960526</v>
+        <v>0.0456752314061177</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1522040238021732</v>
+        <v>0.1769317172013781</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2522822565427116</v>
+        <v>0.5807354306024004</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2025491410241111</v>
+        <v>0.2137176441151215</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.95887497445856</v>
+        <v>34.63463117869033</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02430844306945801</v>
+        <v>0.09317163000000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1175113841891289</v>
+        <v>0.23339406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3047723770141602</v>
+        <v>1.075542</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.155911651487174</v>
+        <v>0.3052402763879989</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.86031085252762</v>
+        <v>38.70345950126648</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02577761560678482</v>
+        <v>0.06752527</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1187585666775703</v>
+        <v>0.20089766</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2902319133281708</v>
+        <v>0.89075845</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1605540893493057</v>
+        <v>0.2598562441062619</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.86660063266754</v>
+        <v>35.5328768491745</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01415591593831778</v>
+        <v>0.049674988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09747026115655899</v>
+        <v>0.17788671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1334710717201233</v>
+        <v>0.38096607</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1189786364786459</v>
+        <v>0.2228788634953273</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.44578862190247</v>
+        <v>28.52194309234619</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01728280633687973</v>
+        <v>0.04862206</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1147612333297729</v>
+        <v>0.17590326</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1751942485570908</v>
+        <v>0.39305425</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.131464087631869</v>
+        <v>0.2205041055562017</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.57136082649231</v>
+        <v>28.14007103443146</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16387,19 +16387,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02661026724615795</v>
+        <v>0.0420486676815081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1190039161975384</v>
+        <v>0.1636830933793772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1773771494273238</v>
+        <v>0.3283218373274083</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1631265375288704</v>
+        <v>0.2050577179271928</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.90288893008336</v>
+        <v>27.09959126835092</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02974875764859103</v>
+        <v>0.0324382292001851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1384510783371392</v>
+        <v>0.134470441003509</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2142419036166239</v>
+        <v>0.2753596464712315</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1724782816721892</v>
+        <v>0.1801061609167913</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.11394576677235</v>
+        <v>22.77072418368535</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04179665818810463</v>
+        <v>0.06253445000000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1725544482469559</v>
+        <v>0.19805647</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3131817579269409</v>
+        <v>0.49715233</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2044423101711205</v>
+        <v>0.250068893476738</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>25.92292428016663</v>
+        <v>30.43828010559082</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.010647002607584</v>
+        <v>0.026090087</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08922901749610901</v>
+        <v>0.12931803</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1295663863420486</v>
+        <v>0.2196528</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1031843137670838</v>
+        <v>0.1615242624780697</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>12.86061704158783</v>
+        <v>18.75678449869156</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05943045020103455</v>
+        <v>0.059328828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1967846155166626</v>
+        <v>0.19661468</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4836013317108154</v>
+        <v>0.48322558</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2437836134793201</v>
+        <v>0.2435750972636217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.27094304561615</v>
+        <v>30.25203347206116</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02582116758962548</v>
+        <v>0.0533918073867058</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.113521963112704</v>
+        <v>0.1836667820870036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2352703397573211</v>
+        <v>0.4901808565886785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1606896623607924</v>
+        <v>0.2310666730333603</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.78242001567169</v>
+        <v>31.73535047893806</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01308901974479583</v>
+        <v>0.0477383409595469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09334056691470478</v>
+        <v>0.1697664925908267</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1639823898839595</v>
+        <v>0.4640578145425167</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.114407253899374</v>
+        <v>0.2184910546442279</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>15.41672386201972</v>
+        <v>29.50447807735477</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02604903653264046</v>
+        <v>0.05903509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1106068193912506</v>
+        <v>0.19701521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3074289560317993</v>
+        <v>0.53010184</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1613971391711776</v>
+        <v>0.2429713745834045</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>18.96805018186569</v>
+        <v>33.92238616943359</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0114212641492486</v>
+        <v>0.019639293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08130958676338196</v>
+        <v>0.11346949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1076293438673019</v>
+        <v>0.18515477</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1068703146306242</v>
+        <v>0.1401402609241225</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.04032546281815</v>
+        <v>17.06869751214981</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0558108314871788</v>
+        <v>0.055779</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1718596220016479</v>
+        <v>0.1717853</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5891149044036865</v>
+        <v>0.58847</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2362431617786614</v>
+        <v>0.2361757796252157</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.99075150489807</v>
+        <v>28.98938357830048</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18427,23 +18427,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1327816872326668</v>
+        <v>0.2261619104709256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3069150989526456</v>
+        <v>0.3810800029882672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1059103592784941</v>
+        <v>0.1330855011840256</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3643922162075733</v>
+        <v>0.475564833088955</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.41262067428245</v>
+        <v>14.79724530969863</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1476941191477341</v>
+        <v>0.4716417972754542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3334635053608492</v>
+        <v>0.4645064975136512</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1197329572542888</v>
+        <v>0.1627535745345505</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3843099259032144</v>
+        <v>0.6867618199022527</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.93941762475463</v>
+        <v>19.91748614148771</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04552879929542542</v>
+        <v>0.6044237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1795201897621155</v>
+        <v>0.74415094</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06451156735420227</v>
+        <v>0.2810816</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2133747859880014</v>
+        <v>0.7774469125047402</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.492049992084503</v>
+        <v>24.25935417413712</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19031,23 +19031,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0205940343439579</v>
+        <v>0.12013607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1151023358106613</v>
+        <v>0.26434314</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04053305089473724</v>
+        <v>0.09026360999999999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1435062170916574</v>
+        <v>0.3466065020613904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.052479937672615</v>
+        <v>9.761053323745728</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1780175715684891</v>
+        <v>0.17883877</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3570794761180878</v>
+        <v>0.35805175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1384498178958893</v>
+        <v>0.1388164</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4219212859864848</v>
+        <v>0.4228933370979992</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.57842183113098</v>
+        <v>12.60967552661896</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19449,23 +19449,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1601392598655975</v>
+        <v>0.2485047584131414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3358914166718475</v>
+        <v>0.3956234868503255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1217383338621101</v>
+        <v>0.1601492952407478</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4001740369709127</v>
+        <v>0.4985025159546754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.83418540273841</v>
+        <v>16.02504044914386</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5137473433465823</v>
+        <v>0.5394078961580151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6012200298724453</v>
+        <v>0.5980242350661261</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2156268426484736</v>
+        <v>0.2237784100777521</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.716761706110603</v>
+        <v>0.7344439367017846</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.35125120456095</v>
+        <v>26.57449319172611</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09214998781681061</v>
+        <v>0.6247797</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2401342391967773</v>
+        <v>0.6906167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09445954114198685</v>
+        <v>0.3022026</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3035621646661695</v>
+        <v>0.7904300735883663</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.066081792116165</v>
+        <v>24.04513955116272</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05132895335555077</v>
+        <v>0.07292256499999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1917637586593628</v>
+        <v>0.22373202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07115644216537476</v>
+        <v>0.07966906</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2265589401360069</v>
+        <v>0.2700417838834808</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.928303092718124</v>
+        <v>8.230380713939667</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1528329253196716</v>
+        <v>0.15283252</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2688169777393341</v>
+        <v>0.2688142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.125632643699646</v>
+        <v>0.12563194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3909385185929773</v>
+        <v>0.3909380040215064</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.8117587864399</v>
+        <v>10.8116514980793</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2218470503664739</v>
+        <v>0.2946130637923472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3740998900861244</v>
+        <v>0.4222584983272577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1615410517556826</v>
+        <v>0.2220861941585613</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.471006422850553</v>
+        <v>0.5427827040283683</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.11274060089849</v>
+        <v>18.10460538133754</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1268550832599993</v>
+        <v>0.4741459827084908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2607206399596998</v>
+        <v>0.5141028672591502</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.114030160874559</v>
+        <v>0.2392692106008053</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3561672124999708</v>
+        <v>0.6885825896059896</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.76861510388997</v>
+        <v>23.41153102927084</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1870554387569427</v>
+        <v>0.45790663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2859668135643005</v>
+        <v>0.45889485</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1426877528429031</v>
+        <v>0.28188807</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4324990621457378</v>
+        <v>0.6766879883783173</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.61508187651634</v>
+        <v>18.40110272169113</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06348109990358353</v>
+        <v>0.36543816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2124339193105698</v>
+        <v>0.5476888</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07952271401882172</v>
+        <v>0.19567513</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2519545592038047</v>
+        <v>0.6045148164275935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.768917828798294</v>
+        <v>21.89067006111145</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3140026926994324</v>
+        <v>0.31262028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.32636359333992</v>
+        <v>0.32601774</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2199126034975052</v>
+        <v>0.21952456</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5603594317038239</v>
+        <v>0.5591245676708874</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.0295684337616</v>
+        <v>14.02033120393753</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03276160607942207</v>
+        <v>0.0608354356218731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1386943970567567</v>
+        <v>0.1972494259291968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.209562535576002</v>
+        <v>0.6567050522564003</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1810016742448038</v>
+        <v>0.2466484048638327</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.07593419249233</v>
+        <v>35.43272774958401</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03279917212787829</v>
+        <v>0.0607393159933358</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1387850170384421</v>
+        <v>0.1970442462858256</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097839925653552</v>
+        <v>0.6561503828391887</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1811054171687813</v>
+        <v>0.246453476326336</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.09133306001202</v>
+        <v>35.40039861534031</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02774189867184202</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1179710030776995</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1592210354720269</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1665589945690175</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.27949283434923</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02774189867184202</v>
+        <v>0.0442719058961799</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1179710030776995</v>
+        <v>0.1634208019481859</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1592210354720269</v>
+        <v>0.5543143487682655</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1665589945690175</v>
+        <v>0.2104089016562273</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.27949283434923</v>
+        <v>30.61002911359511</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03183382004499435</v>
+        <v>0.05806161</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1451146006584167</v>
+        <v>0.17970547</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2606112062931061</v>
+        <v>0.75293845</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1784203464994796</v>
+        <v>0.2409597703088966</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.14545011520386</v>
+        <v>31.90866410732269</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03279947489500046</v>
+        <v>0.06375013</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1493251770734787</v>
+        <v>0.20538239</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2670179307460785</v>
+        <v>0.6471209</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1811062530532849</v>
+        <v>0.2524878866764856</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.75210618972778</v>
+        <v>36.96810603141785</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01324021071195602</v>
+        <v>0.037743032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1013761609792709</v>
+        <v>0.16274689</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1543918699026108</v>
+        <v>0.30359364</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1150661145253285</v>
+        <v>0.1942756597688119</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.4150048494339</v>
+        <v>24.24886673688889</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.00982936006039381</v>
+        <v>0.037589032</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.0869218185544014</v>
+        <v>0.15531439</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1269160807132721</v>
+        <v>0.29776302</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.09914312916381957</v>
+        <v>0.1938789111867483</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.27490678429604</v>
+        <v>23.22704344987869</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1349141427263523</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3080651952724868</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1062190252014451</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3673066058844467</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.45670496717436</v>
+        <v>21.50707720276595</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1352097579729732</v>
+        <v>0.3823904634019501</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3085247078463091</v>
+        <v>0.4864704125147606</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1063826626360497</v>
+        <v>0.2856803644840365</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3677087950715528</v>
+        <v>0.6183772824109487</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.47516630745956</v>
+        <v>21.50707720276595</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1366968007371658</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2318914564387668</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07910432471411942</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.369725304431771</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.794076321556769</v>
+        <v>25.55698681160657</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02334571127836997</v>
+        <v>0.6023219825367075</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1288045414736246</v>
+        <v>0.5639306497782678</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.04543740649835742</v>
+        <v>0.3184895366642806</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1527930341290792</v>
+        <v>0.7760940552128379</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>4.614896694156101</v>
+        <v>25.55698681160657</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04837033152580261</v>
+        <v>0.48236585</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1806066334247589</v>
+        <v>0.4019166</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06472466886043549</v>
+        <v>0.31016895</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2199325613132412</v>
+        <v>0.6945256270533947</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.528839468955994</v>
+        <v>17.19443649053574</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03832607343792915</v>
+        <v>0.57173485</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1580208390951157</v>
+        <v>0.49408808</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.05743037909269333</v>
+        <v>0.35441217</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1957704610964819</v>
+        <v>0.7561315002288128</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>5.714422091841698</v>
+        <v>20.2794536948204</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03988679125905037</v>
+        <v>0.15200622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1598358005285263</v>
+        <v>0.28365457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05459548160433769</v>
+        <v>0.09553755</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1997167776103209</v>
+        <v>0.3898797555629147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.637476965785027</v>
+        <v>10.47563999891281</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03358138352632523</v>
+        <v>0.09055762000000001</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1423494666814804</v>
+        <v>0.22981043</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.04841142892837524</v>
+        <v>0.07892705999999999</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1832522401672766</v>
+        <v>0.3009279314542165</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.000969022512436</v>
+        <v>8.322436362504959</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24062,23 +24062,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2200047216950324</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3745178591485536</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1617106832036531</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4690466092991531</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.12624704382832</v>
+        <v>24.45055543487659</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2192108084431282</v>
+        <v>0.4579092648405883</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3737149996280753</v>
+        <v>0.5310860692945998</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1613450494797529</v>
+        <v>0.3668603805083033</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4681995391316914</v>
+        <v>0.676689932569259</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.09449289593078</v>
+        <v>24.45055543487659</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24768,19 +24768,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2160373522009475</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3671907442235911</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1618212381578926</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4647981843778518</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.86288474066159</v>
+        <v>24.87612602461549</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05992295846009434</v>
+        <v>0.5453520634767691</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1910265001257446</v>
+        <v>0.5319903059793151</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.0850309281834026</v>
+        <v>0.375933770134208</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2447916633794835</v>
+        <v>0.7384795619898827</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.021044479997697</v>
+        <v>24.87612602461549</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24908,23 +24908,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2222419530153275</v>
+        <v>0.42542455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.305704653263092</v>
+        <v>0.40542027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1564661115407944</v>
+        <v>0.35627556</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4714254479929222</v>
+        <v>0.6522457711655489</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.27218732237816</v>
+        <v>19.09378468990326</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2167079001665115</v>
+        <v>0.42627627</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2879326045513153</v>
+        <v>0.49088833</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1504430174827576</v>
+        <v>0.35917395</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4655189579023732</v>
+        <v>0.6528983585328267</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>11.64781972765923</v>
+        <v>22.73562401533127</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06376446783542633</v>
+        <v>0.44593635</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2135367393493652</v>
+        <v>0.60341436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08010286837816238</v>
+        <v>0.2336085</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2525162724170986</v>
+        <v>0.6677846599125662</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.807968556880951</v>
+        <v>24.94368553161621</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.06556589156389236</v>
+        <v>0.43075642</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2181267142295837</v>
+        <v>0.59869933</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08179182559251785</v>
+        <v>0.23233517</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2560583753051096</v>
+        <v>0.6563203637683959</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.972198724746704</v>
+        <v>24.71065521240234</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25359,19 +25359,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25389,19 +25389,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25483,19 +25483,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1547082517482206</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3312114155012318</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1205223023542923</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3933296985332033</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.63624153432465</v>
+        <v>22.56320219793756</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25513,19 +25513,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1541164284317134</v>
+        <v>0.407090009431867</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3304209979708719</v>
+        <v>0.5024685219188231</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1202040167927454</v>
+        <v>0.3124087750180881</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3925766529376313</v>
+        <v>0.6380360565296189</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.60435484142015</v>
+        <v>22.56320219793756</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26061,19 +26061,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1273639915365012</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2820927580211137</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1037172565148792</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3568809206675263</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.74144994979506</v>
+        <v>24.0070358224978</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26091,19 +26091,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1092839826800974</v>
+        <v>0.5498592424480625</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2061224747067276</v>
+        <v>0.5234561745370566</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.07623204349785448</v>
+        <v>0.3292382509811373</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3305812799904093</v>
+        <v>0.7415249439149452</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.402351827435641</v>
+        <v>24.0070358224978</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26201,23 +26201,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1101136431097984</v>
+        <v>0.385406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2392553091049194</v>
+        <v>0.46708012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1003789156675339</v>
+        <v>0.3047572</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3318337582431878</v>
+        <v>0.6208107501494674</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.008132666349411</v>
+        <v>21.04592472314834</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26231,23 +26231,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09217524528503418</v>
+        <v>0.8373749</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2124862223863602</v>
+        <v>0.68886006</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.08952867239713669</v>
+        <v>0.473048</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3036037636213263</v>
+        <v>0.9150819228972908</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.070395141839981</v>
+        <v>26.68564021587372</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26263,23 +26263,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04947250708937645</v>
+        <v>0.1786084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1893889456987381</v>
+        <v>0.32577273</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07015752047300339</v>
+        <v>0.11841427</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2224241603094782</v>
+        <v>0.4226208733721338</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.844758242368698</v>
+        <v>12.41011917591095</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26297,19 +26297,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05750037729740143</v>
+        <v>0.15637553</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2043884992599487</v>
+        <v>0.3082866</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07593163847923279</v>
+        <v>0.113053836</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2397923628838113</v>
+        <v>0.3954434566178798</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.372330874204636</v>
+        <v>11.67180091142654</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26654,19 +26654,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26684,19 +26684,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26778,19 +26778,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03305308846285483</v>
+        <v>0.0300376129918907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1404249348871292</v>
+        <v>0.1365771667279578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1807210410393746</v>
+        <v>0.1883605171077336</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1818050837101505</v>
+        <v>0.1733136260998849</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.14459964807436</v>
+        <v>20.43175442413126</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26808,19 +26808,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03305653648278354</v>
+        <v>0.0300007965852894</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1404242948339218</v>
+        <v>0.1364558401672175</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1807094449721701</v>
+        <v>0.188190851870808</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1818145662007958</v>
+        <v>0.1732073802852794</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.14438756250593</v>
+        <v>20.41154874580975</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27356,19 +27356,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05027167756281909</v>
+        <v>0.0471949261090876</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1890445082057441</v>
+        <v>0.177866249193021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2574086094636781</v>
+        <v>0.2455879314995022</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2242134642763879</v>
+        <v>0.2172439322721986</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.96596441416187</v>
+        <v>27.76361045984054</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27386,19 +27386,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03161272506548164</v>
+        <v>0.0286341833562139</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1433138771344301</v>
+        <v>0.1345011028029502</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.188392573581647</v>
+        <v>0.1888479127860655</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.177799676786775</v>
+        <v>0.1692163802833932</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.64566583433371</v>
+        <v>20.09300197197376</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27496,23 +27496,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0180140845477581</v>
+        <v>0.036212493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1141951978206635</v>
+        <v>0.16343963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1667651832103729</v>
+        <v>0.28310972</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1342165583963398</v>
+        <v>0.1902958032490307</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.24061316251755</v>
+        <v>23.38940501213074</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27526,23 +27526,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03062155097723007</v>
+        <v>0.040850446</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1522375345230103</v>
+        <v>0.15845272</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2153599858283997</v>
+        <v>0.2879449</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1749901453717611</v>
+        <v>0.2021149317298605</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.86572700738907</v>
+        <v>22.86300659179688</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27558,23 +27558,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02384402416646481</v>
+        <v>0.017420689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1409772038459778</v>
+        <v>0.10898539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.189256876707077</v>
+        <v>0.15059982</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1544151034273034</v>
+        <v>0.1319874563890506</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.88814568519592</v>
+        <v>14.90298956632614</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27588,23 +27588,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01261968910694122</v>
+        <v>0.027934084</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09785348176956177</v>
+        <v>0.14445597</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1298185586929321</v>
+        <v>0.19759496</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1123373896213599</v>
+        <v>0.1671349266762672</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>12.96799182891846</v>
+        <v>20.72218954563141</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27624,19 +27624,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02786392346024513</v>
+        <v>0.023161719</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.139286607503891</v>
+        <v>0.13359003</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2336604446172714</v>
+        <v>0.2148921</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1669249036550422</v>
+        <v>0.1521897454556318</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.40977030992508</v>
+        <v>19.76155042648315</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27654,19 +27654,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1040442138910294</v>
+        <v>0.09423258</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2785863280296326</v>
+        <v>0.26329193</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4671984314918518</v>
+        <v>0.44245744</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3225588533756737</v>
+        <v>0.3069732586982836</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>35.2977991104126</v>
+        <v>33.74453485012054</v>
       </c>
     </row>
   </sheetData>
@@ -27968,19 +27968,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -27998,19 +27998,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10">
@@ -28092,19 +28092,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04923392475364935</v>
+        <v>0.0532436693653049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1760133648423235</v>
+        <v>0.1838554932142701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3673839646209872</v>
+        <v>0.4933282617025034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2218871892508654</v>
+        <v>0.2307458978298529</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.62579820002837</v>
+        <v>31.74753782164697</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28122,19 +28122,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04921990192127042</v>
+        <v>0.0531621153323219</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1759957317742719</v>
+        <v>0.1837480596460059</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3673842120922761</v>
+        <v>0.4929682629115156</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2218555879874799</v>
+        <v>0.2305691118348725</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.62294200339532</v>
+        <v>31.73202614868291</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28670,19 +28670,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0535848287075955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.184779895671706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4966655474129958</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2314839707357629</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.9286835700689</v>
+        <v>31.88538743622637</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28700,19 +28700,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0535848287075955</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.184779895671706</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4966655474129958</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2314839707357629</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.9286835700689</v>
+        <v>31.88538743622637</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28810,23 +28810,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04595149680972099</v>
+        <v>0.059376605</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.167851597070694</v>
+        <v>0.19004783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4062642753124237</v>
+        <v>0.63355666</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2143630024274735</v>
+        <v>0.2436731516910728</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.08903849124908</v>
+        <v>31.47652745246887</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28840,23 +28840,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04792823642492294</v>
+        <v>0.40328354</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1707799583673477</v>
+        <v>0.5953507</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.421882838010788</v>
+        <v>1.5478715</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2189251845378301</v>
+        <v>0.6350460900077832</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.37692892551422</v>
+        <v>66.66439175605774</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28872,23 +28872,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03587181866168976</v>
+        <v>0.049174797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.150335282087326</v>
+        <v>0.18641955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2615640759468079</v>
+        <v>0.3242325</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1893985709072002</v>
+        <v>0.2217539104274929</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.44909352064133</v>
+        <v>27.80893743038177</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28902,23 +28902,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03930814564228058</v>
+        <v>0.028823854</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1752880364656448</v>
+        <v>0.1237716</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2753732204437256</v>
+        <v>0.23167129</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1982628196164893</v>
+        <v>0.1697758946426366</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>24.83091354370117</v>
+        <v>18.76014620065689</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28938,19 +28938,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09670798480510712</v>
+        <v>0.09729915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2563409507274628</v>
+        <v>0.25685075</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7913568615913391</v>
+        <v>0.7939451</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3109790745453898</v>
+        <v>0.311928118518626</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.73085379600525</v>
+        <v>38.77038359642029</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -28968,19 +28968,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1013478189706802</v>
+        <v>0.10232216</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2572270631790161</v>
+        <v>0.2588532</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8149804472923279</v>
+        <v>0.818863</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3183517221104359</v>
+        <v>0.319878353749769</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>38.66460621356964</v>
+        <v>38.82765769958496</v>
       </c>
     </row>
   </sheetData>
@@ -29280,19 +29280,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29310,19 +29310,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29404,19 +29404,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03866084845000534</v>
+        <v>0.0416323238903137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1569770101213317</v>
+        <v>0.1632623009917251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2436191478703021</v>
+        <v>0.3288518857482027</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1966236212920649</v>
+        <v>0.2040400056124136</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.06875521113116</v>
+        <v>27.02430865208887</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29434,19 +29434,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03865893860654303</v>
+        <v>0.0415993749184141</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1569673272606375</v>
+        <v>0.1632167396798519</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2436192704876844</v>
+        <v>0.3288466621300593</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1966187646348716</v>
+        <v>0.2039592481806454</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>24.06718148168309</v>
+        <v>27.01658484639864</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -29982,19 +29982,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03928414323802915</v>
+        <v>0.0410365173053576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1583265585977369</v>
+        <v>0.1638501172633584</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2457944721322727</v>
+        <v>0.3289848379348093</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1982022785893975</v>
+        <v>0.2025747203018127</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.28600325196454</v>
+        <v>27.16389502340252</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30008,23 +30008,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04235283195936576</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1697655806035547</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2439579802029459</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2057980368209711</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>26.41839017711171</v>
+        <v>27.13095279106868</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30122,23 +30122,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03228428959846497</v>
+        <v>0.06519848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1485264301300049</v>
+        <v>0.1885315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2654401957988739</v>
+        <v>0.4996334</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1796782947338519</v>
+        <v>0.2553399324095552</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.64888733625412</v>
+        <v>28.99350821971893</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30156,19 +30156,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03166061267256737</v>
+        <v>0.03562332</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1461473256349564</v>
+        <v>0.15509787</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2611347138881683</v>
+        <v>0.36484385</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1779342931325139</v>
+        <v>0.1887414089357196</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.31400907039642</v>
+        <v>25.41569769382477</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30184,23 +30184,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02558156475424767</v>
+        <v>0.09248944000000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1377114355564117</v>
+        <v>0.2711595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2172682583332062</v>
+        <v>0.44157887</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.159942379481636</v>
+        <v>0.3041207716013279</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.46834623813629</v>
+        <v>35.43760180473328</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30214,23 +30214,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01867414638400078</v>
+        <v>0.03237174</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.117529459297657</v>
+        <v>0.1586038</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1835728883743286</v>
+        <v>0.26298144</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1366533804338582</v>
+        <v>0.179921485065629</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.71885401010513</v>
+        <v>22.54845649003983</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30250,19 +30250,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09572868794202805</v>
+        <v>0.099360645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2471681833267212</v>
+        <v>0.25029683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5754620432853699</v>
+        <v>0.5886917</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3094005299640388</v>
+        <v>0.3152152356999139</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>35.61958968639374</v>
+        <v>35.82947254180908</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30280,19 +30280,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07470682263374329</v>
+        <v>0.07720898</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2092523723840714</v>
+        <v>0.2122612</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4592876732349396</v>
+        <v>0.46882844</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2733254884450831</v>
+        <v>0.27786504083445</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.19246065616608</v>
+        <v>31.72428607940674</v>
       </c>
     </row>
   </sheetData>
